--- a/Extended family - Joint Family Tree.xlsx
+++ b/Extended family - Joint Family Tree.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="495">
   <si>
     <t>I</t>
   </si>
@@ -1387,6 +1387,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Shrikant Mor</t>
@@ -1425,6 +1426,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Kartik Bawari </t>
@@ -1437,6 +1439,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Lalita Devi Jhunjhunwala</t>
@@ -1475,6 +1478,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Raman Kedia</t>
@@ -1548,6 +1552,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Vinod Rajgarhia</t>
@@ -1560,6 +1565,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Kashi Prashad Chowdhary</t>
@@ -1645,6 +1651,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Kamala Devi Khakholia</t>
@@ -1678,118 +1685,6 @@
     </r>
   </si>
   <si>
-    <t>to remove all above names</t>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ulab Rai Saraf  (moved to Ratan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>garh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>oji Ram Saraf (During 1828, he helped in establishing Ratan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>garh)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>anraj Saraf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ganga Ram Saraf (his three son</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> buil</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">t </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">their own Heli in Ratangarh) </t>
-    </r>
-  </si>
-  <si>
     <r>
       <t>Maniya Devi</t>
     </r>
@@ -1803,51 +1698,15 @@
   </si>
   <si>
     <r>
-      <t>from Laxmangar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>h</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Durga Prasad Kedia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ant Kumar Fatehpuria</t>
     </r>
   </si>
   <si>
@@ -1877,46 +1736,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Khusbu </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Maskara</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gopal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hetawat</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Shail</t>
     </r>
     <r>
@@ -1933,351 +1752,104 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>Bagrodia</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vinita</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Mansingka</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Boy </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hitanshi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bhawsinghka</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Parmeshwari </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pramod Kasera </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Adopted from his uncle Unkar Mal Kasera)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Krishani Bai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ranju </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gita Devi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lata </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rajesh </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Beria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chintu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Beria</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mani Devi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manisha </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Abhishek </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Neha </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kasera</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Harsh </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Khemka</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Gaurav </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Khemka</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ankit </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Siotia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rahul </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Siotia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tusha </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mittal</t>
-    </r>
-  </si>
-  <si>
     <t>As on 31st March 2019</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Sita Ram Saraf </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(adopted from Gobardhan Das Saraf)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sampat Devi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Saraf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sushila Devi </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Saraf</t>
-    </r>
+    <t>Sita Ram Saraf (adopted from Gobardhan Das Saraf)</t>
+  </si>
+  <si>
+    <t>Sampat Devi Saraf</t>
+  </si>
+  <si>
+    <t>from Laxmangarh</t>
+  </si>
+  <si>
+    <t>Gulab Rai Saraf  (moved to Ratangarh)</t>
+  </si>
+  <si>
+    <t>Moji Ram Saraf (During 1828, he helped in establishing Ratangarh)</t>
+  </si>
+  <si>
+    <t>Panraj Saraf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganga Ram Saraf (his three sons built their own Heli in Ratangarh) </t>
+  </si>
+  <si>
+    <t>Sant Kumar Fatehpuria</t>
+  </si>
+  <si>
+    <t>Khusbu Maskara</t>
+  </si>
+  <si>
+    <t>Gopal Khetawat</t>
+  </si>
+  <si>
+    <t>Vinita Mansingka</t>
+  </si>
+  <si>
+    <t>Hitanshi Bhawsinghka</t>
+  </si>
+  <si>
+    <t>Parmeshwari Kasera</t>
+  </si>
+  <si>
+    <t>Pramod Kasera (Adopted from his uncle Unkar Mal Kasera)</t>
+  </si>
+  <si>
+    <t>Ranju Kasera</t>
+  </si>
+  <si>
+    <t>Krishani Bai Kasera</t>
+  </si>
+  <si>
+    <t>Lata Kasera</t>
+  </si>
+  <si>
+    <t>Rajesh Beria</t>
+  </si>
+  <si>
+    <t>Chintu Beria</t>
+  </si>
+  <si>
+    <t>Mani Devi Kasera</t>
+  </si>
+  <si>
+    <t>Manisha Kasera</t>
+  </si>
+  <si>
+    <t>Abhishek Kasera</t>
+  </si>
+  <si>
+    <t>Neha Kasera</t>
+  </si>
+  <si>
+    <t>Gaurav Khemka</t>
+  </si>
+  <si>
+    <t>Harsh Khemka</t>
+  </si>
+  <si>
+    <t>Ankit Siotia</t>
+  </si>
+  <si>
+    <t>Rahul Siotia</t>
+  </si>
+  <si>
+    <t>Tusha Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girl </t>
   </si>
 </sst>
 </file>
@@ -2290,6 +1862,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2489,20 +2062,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3155,7 +2728,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3293,12 +2866,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3323,26 +2895,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3351,34 +2910,49 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="438">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4147,10 +3721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:NC196"/>
+  <dimension ref="B1:NE196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HB1" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" topLeftCell="HP2" workbookViewId="0">
+      <selection activeCell="IK28" sqref="IK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4397,131 +3971,133 @@
     <col min="241" max="241" width="13.1640625" style="1" customWidth="1"/>
     <col min="242" max="242" width="2.83203125" style="1" customWidth="1"/>
     <col min="243" max="243" width="13.1640625" style="1" customWidth="1"/>
-    <col min="244" max="244" width="1.5" style="1" customWidth="1"/>
-    <col min="245" max="245" width="19.33203125" style="1" customWidth="1"/>
-    <col min="246" max="246" width="2.83203125" style="1" customWidth="1"/>
-    <col min="247" max="247" width="21.1640625" style="1" customWidth="1"/>
-    <col min="248" max="248" width="4.1640625" style="1" customWidth="1"/>
-    <col min="249" max="249" width="19.1640625" style="1" customWidth="1"/>
-    <col min="250" max="250" width="2.83203125" style="1" customWidth="1"/>
-    <col min="251" max="251" width="11.5" style="1" customWidth="1"/>
-    <col min="252" max="252" width="3" style="1" customWidth="1"/>
-    <col min="253" max="253" width="11.83203125" style="1" customWidth="1"/>
+    <col min="244" max="244" width="2" style="1" customWidth="1"/>
+    <col min="245" max="245" width="13.1640625" style="1" customWidth="1"/>
+    <col min="246" max="246" width="1.5" style="1" customWidth="1"/>
+    <col min="247" max="247" width="19.33203125" style="1" customWidth="1"/>
+    <col min="248" max="248" width="2.83203125" style="1" customWidth="1"/>
+    <col min="249" max="249" width="21.1640625" style="1" customWidth="1"/>
+    <col min="250" max="250" width="4.1640625" style="1" customWidth="1"/>
+    <col min="251" max="251" width="19.1640625" style="1" customWidth="1"/>
+    <col min="252" max="252" width="2.83203125" style="1" customWidth="1"/>
+    <col min="253" max="253" width="11.5" style="1" customWidth="1"/>
     <col min="254" max="254" width="3" style="1" customWidth="1"/>
-    <col min="255" max="255" width="18.6640625" style="1" customWidth="1"/>
-    <col min="256" max="256" width="2.83203125" style="1" customWidth="1"/>
-    <col min="257" max="257" width="20.5" style="1" customWidth="1"/>
+    <col min="255" max="255" width="11.83203125" style="1" customWidth="1"/>
+    <col min="256" max="256" width="3" style="1" customWidth="1"/>
+    <col min="257" max="257" width="18.6640625" style="1" customWidth="1"/>
     <col min="258" max="258" width="2.83203125" style="1" customWidth="1"/>
-    <col min="259" max="259" width="17.33203125" style="1" customWidth="1"/>
+    <col min="259" max="259" width="20.5" style="1" customWidth="1"/>
     <col min="260" max="260" width="2.83203125" style="1" customWidth="1"/>
-    <col min="261" max="261" width="15.5" style="1" customWidth="1"/>
-    <col min="262" max="262" width="2.5" style="1" customWidth="1"/>
-    <col min="263" max="263" width="16.83203125" style="1" customWidth="1"/>
+    <col min="261" max="261" width="17.33203125" style="1" customWidth="1"/>
+    <col min="262" max="262" width="2.83203125" style="1" customWidth="1"/>
+    <col min="263" max="263" width="15.5" style="1" customWidth="1"/>
     <col min="264" max="264" width="2.5" style="1" customWidth="1"/>
-    <col min="265" max="265" width="12.1640625" style="1" customWidth="1"/>
-    <col min="266" max="266" width="3.1640625" style="1" customWidth="1"/>
-    <col min="267" max="267" width="13.6640625" style="1" customWidth="1"/>
-    <col min="268" max="268" width="2.33203125" style="1" customWidth="1"/>
-    <col min="269" max="269" width="12.83203125" style="1" customWidth="1"/>
-    <col min="270" max="270" width="3.1640625" style="1" customWidth="1"/>
-    <col min="271" max="271" width="17.5" style="1" customWidth="1"/>
-    <col min="272" max="272" width="2.6640625" style="1" customWidth="1"/>
-    <col min="273" max="273" width="16.83203125" style="1" customWidth="1"/>
+    <col min="265" max="265" width="16.83203125" style="1" customWidth="1"/>
+    <col min="266" max="266" width="2.5" style="1" customWidth="1"/>
+    <col min="267" max="267" width="12.1640625" style="1" customWidth="1"/>
+    <col min="268" max="268" width="3.1640625" style="1" customWidth="1"/>
+    <col min="269" max="269" width="13.6640625" style="1" customWidth="1"/>
+    <col min="270" max="270" width="2.33203125" style="1" customWidth="1"/>
+    <col min="271" max="271" width="12.83203125" style="1" customWidth="1"/>
+    <col min="272" max="272" width="3.1640625" style="1" customWidth="1"/>
+    <col min="273" max="273" width="17.5" style="1" customWidth="1"/>
     <col min="274" max="274" width="2.6640625" style="1" customWidth="1"/>
-    <col min="275" max="275" width="16" style="1" customWidth="1"/>
-    <col min="276" max="276" width="2.83203125" style="1" customWidth="1"/>
-    <col min="277" max="277" width="13.6640625" style="1" customWidth="1"/>
-    <col min="278" max="278" width="2" style="1" customWidth="1"/>
+    <col min="275" max="275" width="16.83203125" style="1" customWidth="1"/>
+    <col min="276" max="276" width="2.6640625" style="1" customWidth="1"/>
+    <col min="277" max="277" width="16" style="1" customWidth="1"/>
+    <col min="278" max="278" width="2.83203125" style="1" customWidth="1"/>
     <col min="279" max="279" width="13.6640625" style="1" customWidth="1"/>
-    <col min="280" max="280" width="2.1640625" style="1" customWidth="1"/>
+    <col min="280" max="280" width="2" style="1" customWidth="1"/>
     <col min="281" max="281" width="13.6640625" style="1" customWidth="1"/>
-    <col min="282" max="282" width="2.6640625" style="1" customWidth="1"/>
-    <col min="283" max="283" width="11.5" style="1" customWidth="1"/>
-    <col min="284" max="284" width="3.33203125" style="1" customWidth="1"/>
-    <col min="285" max="285" width="10.6640625" style="1" customWidth="1"/>
-    <col min="286" max="286" width="1.33203125" style="1" customWidth="1"/>
-    <col min="287" max="287" width="17.33203125" style="1" customWidth="1"/>
-    <col min="288" max="288" width="1.5" style="1" customWidth="1"/>
-    <col min="289" max="289" width="11.5" style="1" customWidth="1"/>
-    <col min="290" max="290" width="3.1640625" style="1" customWidth="1"/>
-    <col min="291" max="291" width="20.1640625" style="1" customWidth="1"/>
-    <col min="292" max="292" width="2.33203125" style="1" customWidth="1"/>
-    <col min="293" max="293" width="22.1640625" style="1" customWidth="1"/>
+    <col min="282" max="282" width="2.1640625" style="1" customWidth="1"/>
+    <col min="283" max="283" width="13.6640625" style="1" customWidth="1"/>
+    <col min="284" max="284" width="2.6640625" style="1" customWidth="1"/>
+    <col min="285" max="285" width="11.5" style="1" customWidth="1"/>
+    <col min="286" max="286" width="3.33203125" style="1" customWidth="1"/>
+    <col min="287" max="287" width="10.6640625" style="1" customWidth="1"/>
+    <col min="288" max="288" width="1.33203125" style="1" customWidth="1"/>
+    <col min="289" max="289" width="17.33203125" style="1" customWidth="1"/>
+    <col min="290" max="290" width="1.5" style="1" customWidth="1"/>
+    <col min="291" max="291" width="11.5" style="1" customWidth="1"/>
+    <col min="292" max="292" width="3.1640625" style="1" customWidth="1"/>
+    <col min="293" max="293" width="20.1640625" style="1" customWidth="1"/>
     <col min="294" max="294" width="2.33203125" style="1" customWidth="1"/>
-    <col min="295" max="295" width="18" style="1" customWidth="1"/>
-    <col min="296" max="296" width="2.6640625" style="1" customWidth="1"/>
-    <col min="297" max="297" width="12.6640625" style="1" customWidth="1"/>
+    <col min="295" max="295" width="22.1640625" style="1" customWidth="1"/>
+    <col min="296" max="296" width="2.33203125" style="1" customWidth="1"/>
+    <col min="297" max="297" width="18" style="1" customWidth="1"/>
     <col min="298" max="298" width="2.6640625" style="1" customWidth="1"/>
-    <col min="299" max="299" width="16.83203125" style="1" customWidth="1"/>
-    <col min="300" max="300" width="3.33203125" style="1" customWidth="1"/>
-    <col min="301" max="301" width="12.83203125" style="1" customWidth="1"/>
-    <col min="302" max="302" width="2.83203125" style="1" customWidth="1"/>
-    <col min="303" max="303" width="18.6640625" style="1" customWidth="1"/>
-    <col min="304" max="304" width="3.1640625" style="1" customWidth="1"/>
-    <col min="305" max="305" width="16.1640625" style="1" customWidth="1"/>
-    <col min="306" max="306" width="1.6640625" style="1" customWidth="1"/>
-    <col min="307" max="307" width="24.33203125" style="1" customWidth="1"/>
-    <col min="308" max="308" width="3.5" style="1" customWidth="1"/>
-    <col min="309" max="309" width="14.33203125" style="1" customWidth="1"/>
-    <col min="310" max="310" width="2.5" style="1" customWidth="1"/>
-    <col min="311" max="311" width="13.83203125" style="1" customWidth="1"/>
-    <col min="312" max="312" width="3" style="1" customWidth="1"/>
-    <col min="313" max="313" width="10.83203125" style="1" customWidth="1"/>
-    <col min="314" max="314" width="1.1640625" style="1" customWidth="1"/>
-    <col min="315" max="315" width="21" customWidth="1"/>
-    <col min="316" max="316" width="1.33203125" customWidth="1"/>
-    <col min="317" max="317" width="19.6640625" customWidth="1"/>
-    <col min="318" max="318" width="1.83203125" customWidth="1"/>
-    <col min="319" max="319" width="15.6640625" customWidth="1"/>
-    <col min="320" max="320" width="2.6640625" customWidth="1"/>
-    <col min="321" max="321" width="18" customWidth="1"/>
-    <col min="322" max="322" width="2.5" customWidth="1"/>
-    <col min="323" max="323" width="14.1640625" customWidth="1"/>
-    <col min="324" max="324" width="2.1640625" customWidth="1"/>
-    <col min="325" max="325" width="12.5" customWidth="1"/>
-    <col min="326" max="326" width="2.5" customWidth="1"/>
-    <col min="327" max="327" width="28.33203125" customWidth="1"/>
-    <col min="328" max="328" width="8.83203125" customWidth="1"/>
-    <col min="329" max="329" width="22" customWidth="1"/>
-    <col min="330" max="330" width="10.5" customWidth="1"/>
-    <col min="331" max="331" width="50.5" customWidth="1"/>
-    <col min="332" max="332" width="3.83203125" customWidth="1"/>
-    <col min="333" max="333" width="13" customWidth="1"/>
-    <col min="334" max="334" width="2.83203125" customWidth="1"/>
-    <col min="335" max="335" width="47.6640625" customWidth="1"/>
-    <col min="336" max="336" width="3.1640625" customWidth="1"/>
-    <col min="337" max="337" width="6.5" customWidth="1"/>
-    <col min="338" max="338" width="2.5" customWidth="1"/>
-    <col min="339" max="339" width="16.33203125" customWidth="1"/>
-    <col min="340" max="340" width="3.1640625" customWidth="1"/>
-    <col min="341" max="341" width="14" customWidth="1"/>
-    <col min="342" max="342" width="2.1640625" customWidth="1"/>
-    <col min="343" max="343" width="21.6640625" customWidth="1"/>
-    <col min="344" max="344" width="3.5" customWidth="1"/>
-    <col min="345" max="345" width="12.33203125" customWidth="1"/>
-    <col min="346" max="346" width="3.33203125" customWidth="1"/>
+    <col min="299" max="299" width="12.6640625" style="1" customWidth="1"/>
+    <col min="300" max="300" width="2.6640625" style="1" customWidth="1"/>
+    <col min="301" max="301" width="16.83203125" style="1" customWidth="1"/>
+    <col min="302" max="302" width="3.33203125" style="1" customWidth="1"/>
+    <col min="303" max="303" width="12.83203125" style="1" customWidth="1"/>
+    <col min="304" max="304" width="2.83203125" style="1" customWidth="1"/>
+    <col min="305" max="305" width="18.6640625" style="1" customWidth="1"/>
+    <col min="306" max="306" width="3.1640625" style="1" customWidth="1"/>
+    <col min="307" max="307" width="16.1640625" style="1" customWidth="1"/>
+    <col min="308" max="308" width="1.6640625" style="1" customWidth="1"/>
+    <col min="309" max="309" width="24.33203125" style="1" customWidth="1"/>
+    <col min="310" max="310" width="3.5" style="1" customWidth="1"/>
+    <col min="311" max="311" width="14.33203125" style="1" customWidth="1"/>
+    <col min="312" max="312" width="2.5" style="1" customWidth="1"/>
+    <col min="313" max="313" width="13.83203125" style="1" customWidth="1"/>
+    <col min="314" max="314" width="3" style="1" customWidth="1"/>
+    <col min="315" max="315" width="10.83203125" style="1" customWidth="1"/>
+    <col min="316" max="316" width="1.1640625" style="1" customWidth="1"/>
+    <col min="317" max="317" width="21" customWidth="1"/>
+    <col min="318" max="318" width="1.33203125" customWidth="1"/>
+    <col min="319" max="319" width="19.6640625" customWidth="1"/>
+    <col min="320" max="320" width="1.83203125" customWidth="1"/>
+    <col min="321" max="321" width="15.6640625" customWidth="1"/>
+    <col min="322" max="322" width="2.6640625" customWidth="1"/>
+    <col min="323" max="323" width="18" customWidth="1"/>
+    <col min="324" max="324" width="2.5" customWidth="1"/>
+    <col min="325" max="325" width="14.1640625" customWidth="1"/>
+    <col min="326" max="326" width="2.1640625" customWidth="1"/>
+    <col min="327" max="327" width="12.5" customWidth="1"/>
+    <col min="328" max="328" width="2.5" customWidth="1"/>
+    <col min="329" max="329" width="28.33203125" customWidth="1"/>
+    <col min="330" max="330" width="8.83203125" customWidth="1"/>
+    <col min="331" max="331" width="22" customWidth="1"/>
+    <col min="332" max="332" width="10.5" customWidth="1"/>
+    <col min="333" max="333" width="50.5" customWidth="1"/>
+    <col min="334" max="334" width="3.83203125" customWidth="1"/>
+    <col min="335" max="335" width="13" customWidth="1"/>
+    <col min="336" max="336" width="2.83203125" customWidth="1"/>
+    <col min="337" max="337" width="47.6640625" customWidth="1"/>
+    <col min="338" max="338" width="3.1640625" customWidth="1"/>
+    <col min="339" max="339" width="6.5" customWidth="1"/>
+    <col min="340" max="340" width="2.5" customWidth="1"/>
+    <col min="341" max="341" width="16.33203125" customWidth="1"/>
+    <col min="342" max="342" width="3.1640625" customWidth="1"/>
+    <col min="343" max="343" width="14" customWidth="1"/>
+    <col min="344" max="344" width="2.1640625" customWidth="1"/>
+    <col min="345" max="345" width="21.6640625" customWidth="1"/>
+    <col min="346" max="346" width="3.5" customWidth="1"/>
     <col min="347" max="347" width="12.33203125" customWidth="1"/>
-    <col min="348" max="348" width="2.33203125" customWidth="1"/>
-    <col min="349" max="349" width="12.1640625" customWidth="1"/>
-    <col min="350" max="350" width="3" customWidth="1"/>
-    <col min="351" max="351" width="15" customWidth="1"/>
-    <col min="352" max="352" width="2.6640625" customWidth="1"/>
-    <col min="353" max="353" width="16" customWidth="1"/>
-    <col min="354" max="354" width="3.1640625" customWidth="1"/>
-    <col min="355" max="355" width="13.83203125" customWidth="1"/>
-    <col min="356" max="356" width="3.33203125" customWidth="1"/>
-    <col min="357" max="357" width="17.5" customWidth="1"/>
-    <col min="358" max="358" width="2.5" customWidth="1"/>
-    <col min="359" max="359" width="11.5" customWidth="1"/>
-    <col min="360" max="360" width="2.83203125" customWidth="1"/>
-    <col min="361" max="361" width="12.83203125" customWidth="1"/>
-    <col min="362" max="362" width="1.33203125" customWidth="1"/>
-    <col min="363" max="363" width="11.6640625" customWidth="1"/>
-    <col min="364" max="364" width="2.5" customWidth="1"/>
-    <col min="365" max="365" width="34.33203125" customWidth="1"/>
+    <col min="348" max="348" width="3.33203125" customWidth="1"/>
+    <col min="349" max="349" width="12.33203125" customWidth="1"/>
+    <col min="350" max="350" width="2.33203125" customWidth="1"/>
+    <col min="351" max="351" width="12.1640625" customWidth="1"/>
+    <col min="352" max="352" width="3" customWidth="1"/>
+    <col min="353" max="353" width="15" customWidth="1"/>
+    <col min="354" max="354" width="2.6640625" customWidth="1"/>
+    <col min="355" max="355" width="16" customWidth="1"/>
+    <col min="356" max="356" width="3.1640625" customWidth="1"/>
+    <col min="357" max="357" width="13.83203125" customWidth="1"/>
+    <col min="358" max="358" width="3.33203125" customWidth="1"/>
+    <col min="359" max="359" width="17.5" customWidth="1"/>
+    <col min="360" max="360" width="2.5" customWidth="1"/>
+    <col min="361" max="361" width="11.5" customWidth="1"/>
+    <col min="362" max="362" width="2.83203125" customWidth="1"/>
+    <col min="363" max="363" width="12.83203125" customWidth="1"/>
+    <col min="364" max="364" width="1.33203125" customWidth="1"/>
+    <col min="365" max="365" width="11.6640625" customWidth="1"/>
+    <col min="366" max="366" width="2.5" customWidth="1"/>
+    <col min="367" max="367" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:367">
+    <row r="1" spans="2:369">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4548,8 +4124,6 @@
       <c r="GD1" s="1"/>
       <c r="GE1" s="1"/>
       <c r="GF1" s="1"/>
-      <c r="LC1" s="1"/>
-      <c r="LD1" s="1"/>
       <c r="LE1" s="1"/>
       <c r="LF1" s="1"/>
       <c r="LG1" s="1"/>
@@ -4601,8 +4175,10 @@
       <c r="NA1" s="1"/>
       <c r="NB1" s="1"/>
       <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
     </row>
-    <row r="2" spans="2:367">
+    <row r="2" spans="2:369">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4629,11 +4205,9 @@
       <c r="GD2" s="1"/>
       <c r="GE2" s="1"/>
       <c r="GF2" s="1"/>
-      <c r="HK2" s="146" t="s">
-        <v>460</v>
-      </c>
-      <c r="LC2" s="1"/>
-      <c r="LD2" s="1"/>
+      <c r="HK2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="LE2" s="1"/>
       <c r="LF2" s="1"/>
       <c r="LG2" s="1"/>
@@ -4685,8 +4259,10 @@
       <c r="NA2" s="1"/>
       <c r="NB2" s="1"/>
       <c r="NC2" s="1"/>
+      <c r="ND2" s="1"/>
+      <c r="NE2" s="1"/>
     </row>
-    <row r="3" spans="2:367" ht="16" thickBot="1">
+    <row r="3" spans="2:369" ht="16" thickBot="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4713,8 +4289,6 @@
       <c r="GD3" s="1"/>
       <c r="GE3" s="1"/>
       <c r="GF3" s="1"/>
-      <c r="LC3" s="1"/>
-      <c r="LD3" s="1"/>
       <c r="LE3" s="1"/>
       <c r="LF3" s="1"/>
       <c r="LG3" s="1"/>
@@ -4766,8 +4340,10 @@
       <c r="NA3" s="1"/>
       <c r="NB3" s="1"/>
       <c r="NC3" s="1"/>
+      <c r="ND3" s="1"/>
+      <c r="NE3" s="1"/>
     </row>
-    <row r="4" spans="2:367" ht="16" thickBot="1">
+    <row r="4" spans="2:369" ht="16" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4794,13 +4370,11 @@
       <c r="GD4" s="1"/>
       <c r="GE4" s="1"/>
       <c r="GF4" s="1"/>
-      <c r="HK4" s="133" t="s">
-        <v>461</v>
+      <c r="HK4" s="142" t="s">
+        <v>469</v>
       </c>
       <c r="HL4" s="61"/>
       <c r="HM4" s="61"/>
-      <c r="LC4" s="1"/>
-      <c r="LD4" s="1"/>
       <c r="LE4" s="1"/>
       <c r="LF4" s="1"/>
       <c r="LG4" s="1"/>
@@ -4852,8 +4426,10 @@
       <c r="NA4" s="1"/>
       <c r="NB4" s="1"/>
       <c r="NC4" s="1"/>
+      <c r="ND4" s="1"/>
+      <c r="NE4" s="1"/>
     </row>
-    <row r="5" spans="2:367" ht="16" thickBot="1">
+    <row r="5" spans="2:369" ht="16" thickBot="1">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -4880,13 +4456,11 @@
       <c r="GD5" s="1"/>
       <c r="GE5" s="1"/>
       <c r="GF5" s="1"/>
-      <c r="HK5" s="145" t="s">
-        <v>462</v>
+      <c r="HK5" s="143" t="s">
+        <v>470</v>
       </c>
       <c r="HL5" s="61"/>
       <c r="HM5" s="61"/>
-      <c r="LC5" s="1"/>
-      <c r="LD5" s="1"/>
       <c r="LE5" s="1"/>
       <c r="LF5" s="1"/>
       <c r="LG5" s="1"/>
@@ -4938,8 +4512,10 @@
       <c r="NA5" s="1"/>
       <c r="NB5" s="1"/>
       <c r="NC5" s="1"/>
+      <c r="ND5" s="1"/>
+      <c r="NE5" s="1"/>
     </row>
-    <row r="6" spans="2:367" ht="16" thickBot="1">
+    <row r="6" spans="2:369" ht="16" thickBot="1">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -4966,13 +4542,11 @@
       <c r="GD6" s="1"/>
       <c r="GE6" s="1"/>
       <c r="GF6" s="1"/>
-      <c r="HK6" s="133" t="s">
-        <v>463</v>
+      <c r="HK6" s="142" t="s">
+        <v>471</v>
       </c>
       <c r="HL6" s="61"/>
       <c r="HM6" s="61"/>
-      <c r="LC6" s="1"/>
-      <c r="LD6" s="1"/>
       <c r="LE6" s="1"/>
       <c r="LF6" s="1"/>
       <c r="LG6" s="1"/>
@@ -5024,8 +4598,10 @@
       <c r="NA6" s="1"/>
       <c r="NB6" s="1"/>
       <c r="NC6" s="1"/>
+      <c r="ND6" s="1"/>
+      <c r="NE6" s="1"/>
     </row>
-    <row r="7" spans="2:367" ht="16" thickBot="1">
+    <row r="7" spans="2:369" ht="16" thickBot="1">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5051,8 +4627,8 @@
       <c r="GD7" s="1"/>
       <c r="GE7" s="1"/>
       <c r="GF7" s="1"/>
-      <c r="HK7" s="133" t="s">
-        <v>464</v>
+      <c r="HK7" s="142" t="s">
+        <v>472</v>
       </c>
       <c r="HL7" s="44"/>
       <c r="HM7" s="44"/>
@@ -5077,8 +4653,6 @@
       <c r="IF7" s="7"/>
       <c r="IG7" s="7"/>
       <c r="IH7" s="7"/>
-      <c r="LC7" s="1"/>
-      <c r="LD7" s="1"/>
       <c r="LE7" s="1"/>
       <c r="LF7" s="1"/>
       <c r="LG7" s="1"/>
@@ -5130,8 +4704,10 @@
       <c r="NA7" s="1"/>
       <c r="NB7" s="1"/>
       <c r="NC7" s="1"/>
+      <c r="ND7" s="1"/>
+      <c r="NE7" s="1"/>
     </row>
-    <row r="8" spans="2:367" ht="16" thickBot="1">
+    <row r="8" spans="2:369" ht="16" thickBot="1">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5183,8 +4759,6 @@
       <c r="IF8" s="2"/>
       <c r="IG8" s="2"/>
       <c r="IH8" s="2"/>
-      <c r="LC8" s="1"/>
-      <c r="LD8" s="1"/>
       <c r="LE8" s="1"/>
       <c r="LF8" s="1"/>
       <c r="LG8" s="1"/>
@@ -5236,8 +4810,10 @@
       <c r="NA8" s="1"/>
       <c r="NB8" s="1"/>
       <c r="NC8" s="1"/>
+      <c r="ND8" s="1"/>
+      <c r="NE8" s="1"/>
     </row>
-    <row r="9" spans="2:367" s="17" customFormat="1">
+    <row r="9" spans="2:369" s="17" customFormat="1">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -5606,8 +5182,10 @@
       <c r="NA9" s="7"/>
       <c r="NB9" s="7"/>
       <c r="NC9" s="7"/>
+      <c r="ND9" s="7"/>
+      <c r="NE9" s="7"/>
     </row>
-    <row r="10" spans="2:367" s="17" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:369" s="17" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -5825,7 +5403,7 @@
       <c r="HH10" s="7"/>
       <c r="HI10" s="7"/>
       <c r="HJ10" s="7"/>
-      <c r="HK10" s="147" t="s">
+      <c r="HK10" s="135" t="s">
         <v>422</v>
       </c>
       <c r="HL10" s="70"/>
@@ -5976,8 +5554,10 @@
       <c r="NA10" s="7"/>
       <c r="NB10" s="7"/>
       <c r="NC10" s="7"/>
+      <c r="ND10" s="7"/>
+      <c r="NE10" s="7"/>
     </row>
-    <row r="11" spans="2:367" ht="16" thickBot="1">
+    <row r="11" spans="2:369" ht="16" thickBot="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6029,8 +5609,6 @@
       <c r="IF11" s="6"/>
       <c r="IG11" s="6"/>
       <c r="IH11" s="6"/>
-      <c r="LC11" s="1"/>
-      <c r="LD11" s="1"/>
       <c r="LE11" s="1"/>
       <c r="LF11" s="1"/>
       <c r="LG11" s="1"/>
@@ -6082,12 +5660,14 @@
       <c r="NA11" s="1"/>
       <c r="NB11" s="1"/>
       <c r="NC11" s="1"/>
+      <c r="ND11" s="1"/>
+      <c r="NE11" s="1"/>
     </row>
-    <row r="12" spans="2:367">
+    <row r="12" spans="2:369">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="AV12" s="139" t="s">
+      <c r="AV12" s="129" t="s">
         <v>438</v>
       </c>
       <c r="AW12" s="101"/>
@@ -6352,13 +5932,13 @@
       <c r="KT12" s="7"/>
       <c r="KU12" s="7"/>
       <c r="KV12" s="7"/>
-      <c r="KW12" s="4"/>
-      <c r="KX12" s="4"/>
+      <c r="KW12" s="7"/>
+      <c r="KX12" s="7"/>
       <c r="KY12" s="4"/>
       <c r="KZ12" s="4"/>
       <c r="LA12" s="4"/>
-      <c r="LC12" s="1"/>
-      <c r="LD12" s="1"/>
+      <c r="LB12" s="4"/>
+      <c r="LC12" s="4"/>
       <c r="LE12" s="1"/>
       <c r="LF12" s="1"/>
       <c r="LG12" s="1"/>
@@ -6410,8 +5990,10 @@
       <c r="NA12" s="1"/>
       <c r="NB12" s="1"/>
       <c r="NC12" s="1"/>
+      <c r="ND12" s="1"/>
+      <c r="NE12" s="1"/>
     </row>
-    <row r="13" spans="2:367" ht="16" thickBot="1">
+    <row r="13" spans="2:369" ht="16" thickBot="1">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6614,8 +6196,8 @@
       <c r="IH13" s="7"/>
       <c r="II13" s="7"/>
       <c r="IJ13" s="7"/>
-      <c r="IK13" s="4"/>
-      <c r="IL13" s="4"/>
+      <c r="IK13" s="7"/>
+      <c r="IL13" s="7"/>
       <c r="IM13" s="4"/>
       <c r="IN13" s="4"/>
       <c r="IO13" s="4"/>
@@ -6683,8 +6265,8 @@
       <c r="KY13" s="4"/>
       <c r="KZ13" s="4"/>
       <c r="LA13" s="4"/>
-      <c r="LC13" s="1"/>
-      <c r="LD13" s="1"/>
+      <c r="LB13" s="4"/>
+      <c r="LC13" s="4"/>
       <c r="LE13" s="1"/>
       <c r="LF13" s="1"/>
       <c r="LG13" s="1"/>
@@ -6736,8 +6318,10 @@
       <c r="NA13" s="1"/>
       <c r="NB13" s="1"/>
       <c r="NC13" s="1"/>
+      <c r="ND13" s="1"/>
+      <c r="NE13" s="1"/>
     </row>
-    <row r="14" spans="2:367" ht="16" thickBot="1">
+    <row r="14" spans="2:369" ht="16" thickBot="1">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7064,21 +6648,23 @@
       <c r="MZ14" s="3"/>
       <c r="NA14" s="3"/>
       <c r="NB14" s="3"/>
-      <c r="NC14" s="1"/>
+      <c r="NC14" s="3"/>
+      <c r="ND14" s="3"/>
+      <c r="NE14" s="1"/>
     </row>
-    <row r="15" spans="2:367">
+    <row r="15" spans="2:369">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="AV15" s="138" t="s">
+      <c r="AV15" s="128" t="s">
         <v>437</v>
       </c>
       <c r="AW15" s="84"/>
       <c r="AX15" s="84"/>
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
-      <c r="BC15" s="148" t="s">
-        <v>467</v>
+      <c r="BC15" s="21" t="s">
+        <v>461</v>
       </c>
       <c r="BD15" s="22"/>
       <c r="BE15" s="22"/>
@@ -7353,15 +6939,15 @@
       <c r="LL15" s="22"/>
       <c r="LM15" s="22"/>
       <c r="LN15" s="22"/>
-      <c r="LO15" s="82" t="s">
+      <c r="LO15" s="22"/>
+      <c r="LP15" s="22"/>
+      <c r="LQ15" s="82" t="s">
         <v>452</v>
       </c>
-      <c r="LP15" s="23"/>
-      <c r="LQ15" s="23" t="s">
+      <c r="LR15" s="23"/>
+      <c r="LS15" s="23" t="s">
         <v>453</v>
       </c>
-      <c r="LR15" s="23"/>
-      <c r="LS15" s="23"/>
       <c r="LT15" s="23"/>
       <c r="LU15" s="23"/>
       <c r="LV15" s="23"/>
@@ -7373,23 +6959,23 @@
       <c r="MB15" s="23"/>
       <c r="MC15" s="23"/>
       <c r="MD15" s="23"/>
-      <c r="ME15" s="144" t="s">
+      <c r="ME15" s="23"/>
+      <c r="MF15" s="23"/>
+      <c r="MG15" s="134" t="s">
         <v>457</v>
       </c>
-      <c r="MF15" s="84"/>
-      <c r="MG15" s="84"/>
       <c r="MH15" s="84"/>
       <c r="MI15" s="84"/>
       <c r="MJ15" s="84"/>
       <c r="MK15" s="84"/>
       <c r="ML15" s="84"/>
       <c r="MM15" s="84"/>
-      <c r="MN15" s="4"/>
-      <c r="MO15" s="84" t="s">
+      <c r="MN15" s="84"/>
+      <c r="MO15" s="84"/>
+      <c r="MP15" s="4"/>
+      <c r="MQ15" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="MP15" s="84"/>
-      <c r="MQ15" s="84"/>
       <c r="MR15" s="84"/>
       <c r="MS15" s="84"/>
       <c r="MT15" s="84"/>
@@ -7400,12 +6986,14 @@
       <c r="MY15" s="84"/>
       <c r="MZ15" s="84"/>
       <c r="NA15" s="84"/>
-      <c r="NB15" s="7"/>
-      <c r="NC15" s="84" t="s">
+      <c r="NB15" s="84"/>
+      <c r="NC15" s="84"/>
+      <c r="ND15" s="7"/>
+      <c r="NE15" s="84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:367">
+    <row r="16" spans="2:369">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -7581,7 +7169,7 @@
       <c r="HI16" s="7"/>
       <c r="HJ16" s="7"/>
       <c r="HK16" s="4" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="HL16" s="4"/>
       <c r="HM16" s="4" t="s">
@@ -7690,15 +7278,15 @@
       <c r="LL16" s="7"/>
       <c r="LM16" s="7"/>
       <c r="LN16" s="7"/>
-      <c r="LO16" s="1" t="s">
+      <c r="LO16" s="7"/>
+      <c r="LP16" s="7"/>
+      <c r="LQ16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="LP16" s="1"/>
-      <c r="LQ16" s="61" t="s">
+      <c r="LR16" s="1"/>
+      <c r="LS16" s="61" t="s">
         <v>454</v>
       </c>
-      <c r="LR16" s="1"/>
-      <c r="LS16" s="1"/>
       <c r="LT16" s="1"/>
       <c r="LU16" s="1"/>
       <c r="LV16" s="1"/>
@@ -7710,23 +7298,23 @@
       <c r="MB16" s="1"/>
       <c r="MC16" s="1"/>
       <c r="MD16" s="1"/>
-      <c r="ME16" s="83" t="s">
+      <c r="ME16" s="1"/>
+      <c r="MF16" s="1"/>
+      <c r="MG16" s="83" t="s">
         <v>458</v>
       </c>
-      <c r="MF16" s="64"/>
-      <c r="MG16" s="64"/>
       <c r="MH16" s="64"/>
       <c r="MI16" s="64"/>
       <c r="MJ16" s="64"/>
       <c r="MK16" s="64"/>
       <c r="ML16" s="64"/>
       <c r="MM16" s="64"/>
-      <c r="MN16" s="7"/>
-      <c r="MO16" s="64" t="s">
+      <c r="MN16" s="64"/>
+      <c r="MO16" s="64"/>
+      <c r="MP16" s="7"/>
+      <c r="MQ16" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="MP16" s="64"/>
-      <c r="MQ16" s="64"/>
       <c r="MR16" s="64"/>
       <c r="MS16" s="64"/>
       <c r="MT16" s="64"/>
@@ -7737,12 +7325,14 @@
       <c r="MY16" s="64"/>
       <c r="MZ16" s="64"/>
       <c r="NA16" s="64"/>
-      <c r="NB16" s="7"/>
-      <c r="NC16" s="64" t="s">
+      <c r="NB16" s="64"/>
+      <c r="NC16" s="64"/>
+      <c r="ND16" s="7"/>
+      <c r="NE16" s="64" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:367" ht="16" thickBot="1">
+    <row r="17" spans="2:369" ht="16" thickBot="1">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -7751,8 +7341,8 @@
       <c r="AX17" s="84"/>
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
-      <c r="BC17" s="111" t="s">
-        <v>466</v>
+      <c r="BC17" s="141" t="s">
+        <v>468</v>
       </c>
       <c r="BD17" s="19"/>
       <c r="BE17" s="19"/>
@@ -8027,8 +7617,8 @@
       <c r="LL17" s="19"/>
       <c r="LM17" s="19"/>
       <c r="LN17" s="19"/>
-      <c r="LO17" s="26"/>
-      <c r="LP17" s="26"/>
+      <c r="LO17" s="19"/>
+      <c r="LP17" s="19"/>
       <c r="LQ17" s="26"/>
       <c r="LR17" s="26"/>
       <c r="LS17" s="26"/>
@@ -8043,9 +7633,9 @@
       <c r="MB17" s="26"/>
       <c r="MC17" s="26"/>
       <c r="MD17" s="26"/>
-      <c r="ME17" s="28"/>
-      <c r="MF17" s="4"/>
-      <c r="MG17" s="4"/>
+      <c r="ME17" s="26"/>
+      <c r="MF17" s="26"/>
+      <c r="MG17" s="28"/>
       <c r="MH17" s="4"/>
       <c r="MI17" s="4"/>
       <c r="MJ17" s="4"/>
@@ -8053,11 +7643,11 @@
       <c r="ML17" s="4"/>
       <c r="MM17" s="4"/>
       <c r="MN17" s="4"/>
-      <c r="MO17" s="4" t="s">
+      <c r="MO17" s="4"/>
+      <c r="MP17" s="4"/>
+      <c r="MQ17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="MP17" s="4"/>
-      <c r="MQ17" s="4"/>
       <c r="MR17" s="4"/>
       <c r="MS17" s="4"/>
       <c r="MT17" s="4"/>
@@ -8068,10 +7658,12 @@
       <c r="MY17" s="4"/>
       <c r="MZ17" s="4"/>
       <c r="NA17" s="4"/>
-      <c r="NB17" s="7"/>
+      <c r="NB17" s="4"/>
       <c r="NC17" s="4"/>
+      <c r="ND17" s="7"/>
+      <c r="NE17" s="4"/>
     </row>
-    <row r="18" spans="2:367" ht="16" thickBot="1">
+    <row r="18" spans="2:369" ht="16" thickBot="1">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -8133,8 +7725,6 @@
       <c r="IF18" s="2"/>
       <c r="IG18" s="2"/>
       <c r="IH18" s="2"/>
-      <c r="LC18" s="1"/>
-      <c r="LD18" s="1"/>
       <c r="LE18" s="1"/>
       <c r="LF18" s="1"/>
       <c r="LG18" s="1"/>
@@ -8145,15 +7735,15 @@
       <c r="LL18" s="1"/>
       <c r="LM18" s="1"/>
       <c r="LN18" s="1"/>
-      <c r="LO18" s="1" t="s">
+      <c r="LO18" s="1"/>
+      <c r="LP18" s="1"/>
+      <c r="LQ18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="LP18" s="1"/>
-      <c r="LQ18" s="2" t="s">
+      <c r="LR18" s="1"/>
+      <c r="LS18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LR18" s="1"/>
-      <c r="LS18" s="1"/>
       <c r="LT18" s="1"/>
       <c r="LU18" s="1"/>
       <c r="LV18" s="1"/>
@@ -8165,23 +7755,23 @@
       <c r="MB18" s="1"/>
       <c r="MC18" s="1"/>
       <c r="MD18" s="1"/>
-      <c r="ME18" s="2" t="s">
+      <c r="ME18" s="1"/>
+      <c r="MF18" s="1"/>
+      <c r="MG18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="MF18" s="2"/>
-      <c r="MG18" s="2"/>
       <c r="MH18" s="2"/>
       <c r="MI18" s="2"/>
       <c r="MJ18" s="2"/>
       <c r="MK18" s="2"/>
       <c r="ML18" s="2"/>
       <c r="MM18" s="2"/>
-      <c r="MN18" s="1"/>
-      <c r="MO18" s="2" t="s">
+      <c r="MN18" s="2"/>
+      <c r="MO18" s="2"/>
+      <c r="MP18" s="1"/>
+      <c r="MQ18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="MP18" s="2"/>
-      <c r="MQ18" s="2"/>
       <c r="MR18" s="2"/>
       <c r="MS18" s="2"/>
       <c r="MT18" s="2"/>
@@ -8190,19 +7780,21 @@
       <c r="MW18" s="2"/>
       <c r="MX18" s="2"/>
       <c r="MY18" s="2"/>
-      <c r="MZ18" s="1"/>
-      <c r="NA18" s="1"/>
+      <c r="MZ18" s="2"/>
+      <c r="NA18" s="2"/>
       <c r="NB18" s="1"/>
-      <c r="NC18" s="1" t="s">
+      <c r="NC18" s="1"/>
+      <c r="ND18" s="1"/>
+      <c r="NE18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:367" ht="18">
+    <row r="19" spans="2:369" ht="18">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="AV19" s="136" t="s">
-        <v>494</v>
+      <c r="AV19" s="139" t="s">
+        <v>466</v>
       </c>
       <c r="AW19" s="108"/>
       <c r="AX19" s="108"/>
@@ -8389,21 +7981,21 @@
       <c r="IG19" s="36"/>
       <c r="IH19" s="36"/>
       <c r="II19" s="36"/>
-      <c r="IJ19" s="56" t="s">
+      <c r="IJ19" s="36"/>
+      <c r="IK19" s="36"/>
+      <c r="IL19" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="IK19" s="56" t="s">
+      <c r="IM19" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="IL19" s="56"/>
-      <c r="IM19" s="56"/>
       <c r="IN19" s="56"/>
-      <c r="IO19" s="56" t="s">
+      <c r="IO19" s="56"/>
+      <c r="IP19" s="56"/>
+      <c r="IQ19" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="IP19" s="56"/>
-      <c r="IQ19" s="23"/>
-      <c r="IR19" s="23"/>
+      <c r="IR19" s="56"/>
       <c r="IS19" s="23"/>
       <c r="IT19" s="23"/>
       <c r="IU19" s="23"/>
@@ -8415,20 +8007,20 @@
       <c r="JA19" s="23"/>
       <c r="JB19" s="23"/>
       <c r="JC19" s="23"/>
-      <c r="JD19" s="86" t="s">
+      <c r="JD19" s="23"/>
+      <c r="JE19" s="23"/>
+      <c r="JF19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="JE19" s="86" t="s">
+      <c r="JG19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="JF19" s="22"/>
-      <c r="JG19" s="22"/>
       <c r="JH19" s="22"/>
-      <c r="JI19" s="86" t="s">
+      <c r="JI19" s="22"/>
+      <c r="JJ19" s="22"/>
+      <c r="JK19" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="JJ19" s="22"/>
-      <c r="JK19" s="22"/>
       <c r="JL19" s="22"/>
       <c r="JM19" s="22"/>
       <c r="JN19" s="22"/>
@@ -8464,19 +8056,19 @@
       <c r="KR19" s="22"/>
       <c r="KS19" s="22"/>
       <c r="KT19" s="22"/>
-      <c r="KU19" s="55" t="s">
+      <c r="KU19" s="22"/>
+      <c r="KV19" s="22"/>
+      <c r="KW19" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="KV19" s="85"/>
-      <c r="KW19" s="71" t="s">
+      <c r="KX19" s="85"/>
+      <c r="KY19" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="KX19" s="71"/>
-      <c r="KY19" s="71"/>
       <c r="KZ19" s="71"/>
       <c r="LA19" s="71"/>
-      <c r="LB19" s="7"/>
-      <c r="LC19" s="7"/>
+      <c r="LB19" s="71"/>
+      <c r="LC19" s="71"/>
       <c r="LD19" s="7"/>
       <c r="LE19" s="7"/>
       <c r="LF19" s="7"/>
@@ -8490,31 +8082,31 @@
       <c r="LN19" s="7"/>
       <c r="LO19" s="7"/>
       <c r="LP19" s="7"/>
-      <c r="LQ19" s="51" t="s">
+      <c r="LQ19" s="7"/>
+      <c r="LR19" s="7"/>
+      <c r="LS19" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="LR19" s="7"/>
-      <c r="LS19" s="38" t="s">
+      <c r="LT19" s="7"/>
+      <c r="LU19" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="LT19" s="39"/>
-      <c r="LU19" s="39"/>
-      <c r="LV19" s="22"/>
-      <c r="LW19" s="39" t="s">
+      <c r="LV19" s="39"/>
+      <c r="LW19" s="39"/>
+      <c r="LX19" s="22"/>
+      <c r="LY19" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="LX19" s="39"/>
-      <c r="LY19" s="39"/>
       <c r="LZ19" s="39"/>
       <c r="MA19" s="39"/>
       <c r="MB19" s="39"/>
       <c r="MC19" s="39"/>
-      <c r="MD19" s="22"/>
-      <c r="ME19" s="39" t="s">
+      <c r="MD19" s="39"/>
+      <c r="ME19" s="39"/>
+      <c r="MF19" s="22"/>
+      <c r="MG19" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="MF19" s="39"/>
-      <c r="MG19" s="39"/>
       <c r="MH19" s="39"/>
       <c r="MI19" s="39"/>
       <c r="MJ19" s="39"/>
@@ -8522,33 +8114,35 @@
       <c r="ML19" s="39"/>
       <c r="MM19" s="39"/>
       <c r="MN19" s="39"/>
-      <c r="MO19" s="39" t="s">
+      <c r="MO19" s="86"/>
+      <c r="MP19" s="86"/>
+      <c r="MQ19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="MP19" s="39"/>
-      <c r="MQ19" s="39"/>
-      <c r="MR19" s="39"/>
-      <c r="MS19" s="39" t="s">
+      <c r="MR19" s="86"/>
+      <c r="MS19" s="86"/>
+      <c r="MT19" s="86"/>
+      <c r="MU19" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="MT19" s="39"/>
-      <c r="MU19" s="39"/>
       <c r="MV19" s="39"/>
       <c r="MW19" s="39"/>
       <c r="MX19" s="39"/>
       <c r="MY19" s="39"/>
       <c r="MZ19" s="39"/>
-      <c r="NA19" s="43" t="s">
+      <c r="NA19" s="39"/>
+      <c r="NB19" s="39"/>
+      <c r="NC19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="NB19" s="85"/>
-      <c r="NC19" s="1"/>
+      <c r="ND19" s="85"/>
+      <c r="NE19" s="1"/>
     </row>
-    <row r="20" spans="2:367" ht="16" thickBot="1">
+    <row r="20" spans="2:369" ht="16" thickBot="1">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="AV20" s="137" t="s">
+      <c r="AV20" s="127" t="s">
         <v>436</v>
       </c>
       <c r="AW20" s="108"/>
@@ -8674,7 +8268,7 @@
       <c r="GC20" s="19"/>
       <c r="GD20" s="19"/>
       <c r="GE20" s="44" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="GF20" s="48"/>
       <c r="GG20" s="48"/>
@@ -8738,21 +8332,21 @@
       <c r="IG20" s="37"/>
       <c r="IH20" s="37"/>
       <c r="II20" s="37"/>
-      <c r="IJ20" s="57" t="s">
+      <c r="IJ20" s="37"/>
+      <c r="IK20" s="37"/>
+      <c r="IL20" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="IK20" s="57" t="s">
+      <c r="IM20" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="IL20" s="57"/>
-      <c r="IM20" s="57"/>
       <c r="IN20" s="57"/>
-      <c r="IO20" s="57" t="s">
+      <c r="IO20" s="57"/>
+      <c r="IP20" s="57"/>
+      <c r="IQ20" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="IP20" s="57"/>
-      <c r="IQ20" s="26"/>
-      <c r="IR20" s="26"/>
+      <c r="IR20" s="57"/>
       <c r="IS20" s="26"/>
       <c r="IT20" s="26"/>
       <c r="IU20" s="26"/>
@@ -8764,20 +8358,20 @@
       <c r="JA20" s="26"/>
       <c r="JB20" s="26"/>
       <c r="JC20" s="26"/>
-      <c r="JD20" s="87" t="s">
+      <c r="JD20" s="26"/>
+      <c r="JE20" s="26"/>
+      <c r="JF20" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="JE20" s="87" t="s">
+      <c r="JG20" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="JF20" s="19"/>
-      <c r="JG20" s="19"/>
       <c r="JH20" s="19"/>
-      <c r="JI20" s="87" t="s">
+      <c r="JI20" s="19"/>
+      <c r="JJ20" s="19"/>
+      <c r="JK20" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="JJ20" s="19"/>
-      <c r="JK20" s="19"/>
       <c r="JL20" s="19"/>
       <c r="JM20" s="19"/>
       <c r="JN20" s="19"/>
@@ -8813,19 +8407,19 @@
       <c r="KR20" s="19"/>
       <c r="KS20" s="19"/>
       <c r="KT20" s="19"/>
-      <c r="KU20" s="54" t="s">
+      <c r="KU20" s="19"/>
+      <c r="KV20" s="19"/>
+      <c r="KW20" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="KV20" s="85"/>
-      <c r="KW20" s="44" t="s">
+      <c r="KX20" s="85"/>
+      <c r="KY20" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="KX20" s="44"/>
-      <c r="KY20" s="44"/>
       <c r="KZ20" s="44"/>
       <c r="LA20" s="44"/>
-      <c r="LB20" s="7"/>
-      <c r="LC20" s="7"/>
+      <c r="LB20" s="44"/>
+      <c r="LC20" s="44"/>
       <c r="LD20" s="7"/>
       <c r="LE20" s="7"/>
       <c r="LF20" s="7"/>
@@ -8839,61 +8433,63 @@
       <c r="LN20" s="7"/>
       <c r="LO20" s="7"/>
       <c r="LP20" s="7"/>
-      <c r="LQ20" s="50" t="s">
+      <c r="LQ20" s="7"/>
+      <c r="LR20" s="7"/>
+      <c r="LS20" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="LR20" s="7"/>
-      <c r="LS20" s="111" t="s">
-        <v>476</v>
-      </c>
-      <c r="LT20" s="19"/>
-      <c r="LU20" s="19"/>
+      <c r="LT20" s="7"/>
+      <c r="LU20" s="141" t="s">
+        <v>478</v>
+      </c>
       <c r="LV20" s="19"/>
-      <c r="LW20" s="129" t="s">
-        <v>478</v>
-      </c>
+      <c r="LW20" s="19"/>
       <c r="LX20" s="19"/>
-      <c r="LY20" s="19"/>
+      <c r="LY20" s="87" t="s">
+        <v>481</v>
+      </c>
       <c r="LZ20" s="19"/>
       <c r="MA20" s="19"/>
       <c r="MB20" s="19"/>
       <c r="MC20" s="19"/>
       <c r="MD20" s="19"/>
-      <c r="ME20" s="129" t="s">
-        <v>480</v>
-      </c>
+      <c r="ME20" s="19"/>
       <c r="MF20" s="19"/>
-      <c r="MG20" s="19"/>
-      <c r="MH20" s="19"/>
-      <c r="MI20" s="19"/>
-      <c r="MJ20" s="19"/>
-      <c r="MK20" s="19"/>
-      <c r="ML20" s="19"/>
-      <c r="MM20" s="19"/>
+      <c r="MG20" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="MH20" s="87"/>
+      <c r="MI20" s="87"/>
+      <c r="MJ20" s="87"/>
+      <c r="MK20" s="87"/>
+      <c r="ML20" s="87"/>
+      <c r="MM20" s="87"/>
       <c r="MN20" s="19"/>
-      <c r="MO20" s="19" t="s">
+      <c r="MO20" s="87"/>
+      <c r="MP20" s="87"/>
+      <c r="MQ20" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="MP20" s="19"/>
-      <c r="MQ20" s="19"/>
-      <c r="MR20" s="19"/>
-      <c r="MS20" s="129" t="s">
-        <v>484</v>
-      </c>
-      <c r="MT20" s="19"/>
-      <c r="MU20" s="19"/>
+      <c r="MR20" s="87"/>
+      <c r="MS20" s="87"/>
+      <c r="MT20" s="87"/>
+      <c r="MU20" s="87" t="s">
+        <v>485</v>
+      </c>
       <c r="MV20" s="19"/>
       <c r="MW20" s="19"/>
       <c r="MX20" s="19"/>
       <c r="MY20" s="19"/>
       <c r="MZ20" s="19"/>
-      <c r="NA20" s="20" t="s">
+      <c r="NA20" s="19"/>
+      <c r="NB20" s="19"/>
+      <c r="NC20" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="NB20" s="85"/>
-      <c r="NC20" s="1"/>
+      <c r="ND20" s="85"/>
+      <c r="NE20" s="1"/>
     </row>
-    <row r="21" spans="2:367" ht="16" thickBot="1">
+    <row r="21" spans="2:369" ht="16" thickBot="1">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8980,20 +8576,20 @@
       <c r="IG21" s="2"/>
       <c r="IH21" s="2"/>
       <c r="II21" s="2"/>
-      <c r="IJ21" s="2" t="s">
+      <c r="IJ21" s="2"/>
+      <c r="IK21" s="2"/>
+      <c r="IL21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="IK21" s="2" t="s">
+      <c r="IM21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="IL21" s="2"/>
-      <c r="IM21" s="2"/>
       <c r="IN21" s="2"/>
-      <c r="IO21" s="2" t="s">
+      <c r="IO21" s="2"/>
+      <c r="IP21" s="2"/>
+      <c r="IQ21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IP21" s="2"/>
-      <c r="IQ21" s="2"/>
       <c r="IR21" s="2"/>
       <c r="IS21" s="2"/>
       <c r="IT21" s="2"/>
@@ -9006,20 +8602,20 @@
       <c r="JA21" s="2"/>
       <c r="JB21" s="2"/>
       <c r="JC21" s="2"/>
-      <c r="JD21" s="93" t="s">
+      <c r="JD21" s="2"/>
+      <c r="JE21" s="2"/>
+      <c r="JF21" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="JE21" s="93" t="s">
+      <c r="JG21" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="JF21" s="2"/>
-      <c r="JG21" s="2"/>
       <c r="JH21" s="2"/>
-      <c r="JI21" s="2" t="s">
+      <c r="JI21" s="2"/>
+      <c r="JJ21" s="2"/>
+      <c r="JK21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="JJ21" s="2"/>
-      <c r="JK21" s="2"/>
       <c r="JL21" s="2"/>
       <c r="JM21" s="2"/>
       <c r="JN21" s="2"/>
@@ -9055,15 +8651,15 @@
       <c r="KR21" s="2"/>
       <c r="KS21" s="2"/>
       <c r="KT21" s="2"/>
-      <c r="KU21" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="KU21" s="2"/>
       <c r="KV21" s="2"/>
       <c r="KW21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="KX21" s="2"/>
+      <c r="KY21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="KX21" s="2"/>
-      <c r="KY21" s="2"/>
       <c r="KZ21" s="2"/>
       <c r="LA21" s="2"/>
       <c r="LB21" s="2"/>
@@ -9081,63 +8677,65 @@
       <c r="LN21" s="2"/>
       <c r="LO21" s="2"/>
       <c r="LP21" s="2"/>
-      <c r="LQ21" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="LQ21" s="2"/>
       <c r="LR21" s="2"/>
       <c r="LS21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="LT21" s="2"/>
-      <c r="LU21" s="2"/>
+      <c r="LU21" s="145" t="s">
+        <v>0</v>
+      </c>
       <c r="LV21" s="2"/>
-      <c r="LW21" s="2" t="s">
+      <c r="LW21" s="2"/>
+      <c r="LX21" s="2"/>
+      <c r="LY21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LX21" s="2"/>
-      <c r="LY21" s="2"/>
       <c r="LZ21" s="2"/>
       <c r="MA21" s="2"/>
       <c r="MB21" s="2"/>
       <c r="MC21" s="2"/>
       <c r="MD21" s="2"/>
-      <c r="ME21" s="2" t="s">
+      <c r="ME21" s="2"/>
+      <c r="MF21" s="2"/>
+      <c r="MG21" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="MF21" s="2"/>
-      <c r="MG21" s="2"/>
-      <c r="MH21" s="2"/>
-      <c r="MI21" s="2"/>
-      <c r="MJ21" s="2"/>
-      <c r="MK21" s="2"/>
-      <c r="ML21" s="2"/>
-      <c r="MM21" s="2"/>
+      <c r="MH21" s="145"/>
+      <c r="MI21" s="145"/>
+      <c r="MJ21" s="145"/>
+      <c r="MK21" s="145"/>
+      <c r="ML21" s="145"/>
+      <c r="MM21" s="145"/>
       <c r="MN21" s="2"/>
-      <c r="MO21" s="123" t="s">
+      <c r="MO21" s="145"/>
+      <c r="MP21" s="145"/>
+      <c r="MQ21" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="MP21" s="123"/>
-      <c r="MQ21" s="123"/>
-      <c r="MR21" s="123"/>
-      <c r="MS21" s="123" t="s">
+      <c r="MR21" s="155"/>
+      <c r="MS21" s="155"/>
+      <c r="MT21" s="155"/>
+      <c r="MU21" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="MT21" s="123"/>
-      <c r="MU21" s="123"/>
-      <c r="MV21" s="123"/>
-      <c r="MW21" s="123"/>
-      <c r="MX21" s="2"/>
-      <c r="MY21" s="2"/>
+      <c r="MV21" s="122"/>
+      <c r="MW21" s="122"/>
+      <c r="MX21" s="122"/>
+      <c r="MY21" s="122"/>
       <c r="MZ21" s="2"/>
       <c r="NA21" s="2"/>
-      <c r="NB21" s="1"/>
-      <c r="NC21" s="1"/>
+      <c r="NB21" s="2"/>
+      <c r="NC21" s="2"/>
+      <c r="ND21" s="1"/>
+      <c r="NE21" s="1"/>
     </row>
-    <row r="22" spans="2:367" ht="17" thickBot="1">
+    <row r="22" spans="2:369" ht="17" thickBot="1">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="O22" s="139" t="s">
+      <c r="O22" s="129" t="s">
         <v>443</v>
       </c>
       <c r="P22" s="101"/>
@@ -9172,7 +8770,7 @@
       <c r="AS22" s="23"/>
       <c r="AT22" s="23"/>
       <c r="AU22" s="23"/>
-      <c r="AV22" s="140" t="s">
+      <c r="AV22" s="130" t="s">
         <v>439</v>
       </c>
       <c r="AW22" s="84"/>
@@ -9312,7 +8910,7 @@
       </c>
       <c r="FF22" s="44"/>
       <c r="FG22" s="44"/>
-      <c r="FK22" s="127" t="s">
+      <c r="FK22" s="124" t="s">
         <v>314</v>
       </c>
       <c r="FL22" s="1"/>
@@ -9376,7 +8974,7 @@
       </c>
       <c r="HR22" s="33"/>
       <c r="HS22" s="47" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="HT22" s="33"/>
       <c r="HU22" s="47" t="s">
@@ -9400,208 +8998,210 @@
       </c>
       <c r="IH22" s="67"/>
       <c r="II22" s="67"/>
-      <c r="IJ22" s="39" t="s">
+      <c r="IJ22" s="67"/>
+      <c r="IK22" s="67"/>
+      <c r="IL22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="IK22" s="39" t="s">
+      <c r="IM22" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="IL22" s="39"/>
-      <c r="IM22" s="39"/>
-      <c r="IN22" s="22"/>
-      <c r="IO22" s="47" t="s">
+      <c r="IN22" s="39"/>
+      <c r="IO22" s="39"/>
+      <c r="IP22" s="22"/>
+      <c r="IQ22" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="IP22" s="39"/>
-      <c r="IQ22" s="33"/>
-      <c r="IR22" s="39" t="s">
+      <c r="IR22" s="39"/>
+      <c r="IS22" s="33"/>
+      <c r="IT22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="IS22" s="39" t="s">
+      <c r="IU22" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="IT22" s="33"/>
-      <c r="IU22" s="33"/>
-      <c r="IV22" s="47" t="s">
+      <c r="IV22" s="33"/>
+      <c r="IW22" s="33"/>
+      <c r="IX22" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="IW22" s="55" t="s">
+      <c r="IY22" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="IX22" s="15"/>
-      <c r="IY22" s="15"/>
       <c r="IZ22" s="15"/>
       <c r="JA22" s="15"/>
-      <c r="JB22" s="94" t="s">
+      <c r="JB22" s="15"/>
+      <c r="JC22" s="15"/>
+      <c r="JD22" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="JC22" s="38" t="s">
+      <c r="JE22" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="JD22" s="39" t="s">
+      <c r="JF22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="JE22" s="39" t="s">
+      <c r="JG22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="JF22" s="33"/>
-      <c r="JG22" s="39" t="s">
+      <c r="JH22" s="33"/>
+      <c r="JI22" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="JH22" s="33"/>
-      <c r="JI22" s="47" t="s">
+      <c r="JJ22" s="33"/>
+      <c r="JK22" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="JJ22" s="33"/>
-      <c r="JK22" s="33"/>
       <c r="JL22" s="33"/>
-      <c r="JM22" s="47" t="s">
+      <c r="JM22" s="33"/>
+      <c r="JN22" s="33"/>
+      <c r="JO22" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="JN22" s="33"/>
-      <c r="JO22" s="33"/>
       <c r="JP22" s="33"/>
-      <c r="JQ22" s="47" t="s">
+      <c r="JQ22" s="33"/>
+      <c r="JR22" s="33"/>
+      <c r="JS22" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="JR22" s="47"/>
-      <c r="JS22" s="47"/>
-      <c r="JT22" s="33"/>
-      <c r="JU22" s="43" t="s">
+      <c r="JT22" s="47"/>
+      <c r="JU22" s="47"/>
+      <c r="JV22" s="33"/>
+      <c r="JW22" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="JV22" s="44"/>
-      <c r="JW22" s="44"/>
       <c r="JX22" s="44"/>
       <c r="JY22" s="44"/>
       <c r="JZ22" s="44"/>
-      <c r="KA22" s="45" t="s">
+      <c r="KA22" s="44"/>
+      <c r="KB22" s="44"/>
+      <c r="KC22" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="KB22" s="39"/>
-      <c r="KC22" s="39"/>
       <c r="KD22" s="39"/>
       <c r="KE22" s="39"/>
       <c r="KF22" s="39"/>
-      <c r="KG22" s="47" t="s">
+      <c r="KG22" s="39"/>
+      <c r="KH22" s="39"/>
+      <c r="KI22" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="KH22" s="47"/>
-      <c r="KI22" s="47"/>
       <c r="KJ22" s="47"/>
       <c r="KK22" s="47"/>
       <c r="KL22" s="47"/>
-      <c r="KM22" s="47" t="s">
+      <c r="KM22" s="47"/>
+      <c r="KN22" s="47"/>
+      <c r="KO22" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="KN22" s="47"/>
-      <c r="KO22" s="47"/>
-      <c r="KP22" s="39"/>
-      <c r="KQ22" s="47" t="s">
+      <c r="KP22" s="47"/>
+      <c r="KQ22" s="47"/>
+      <c r="KR22" s="39"/>
+      <c r="KS22" s="47" t="s">
         <v>250</v>
-      </c>
-      <c r="KR22" s="39"/>
-      <c r="KS22" s="39" t="s">
-        <v>4</v>
       </c>
       <c r="KT22" s="39"/>
       <c r="KU22" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="KV22" s="39"/>
+      <c r="KW22" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="KV22" s="39"/>
-      <c r="KW22" s="22" t="s">
+      <c r="KX22" s="39"/>
+      <c r="KY22" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="KX22" s="22"/>
-      <c r="KY22" s="22"/>
       <c r="KZ22" s="22"/>
       <c r="LA22" s="22"/>
-      <c r="LB22" s="39"/>
-      <c r="LC22" s="47" t="s">
+      <c r="LB22" s="22"/>
+      <c r="LC22" s="22"/>
+      <c r="LD22" s="39"/>
+      <c r="LE22" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="LD22" s="47"/>
-      <c r="LE22" s="47"/>
-      <c r="LF22" s="39"/>
-      <c r="LG22" s="39" t="s">
+      <c r="LF22" s="47"/>
+      <c r="LG22" s="47"/>
+      <c r="LH22" s="39"/>
+      <c r="LI22" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="LH22" s="39"/>
-      <c r="LI22" s="39"/>
       <c r="LJ22" s="39"/>
-      <c r="LK22" s="55" t="s">
+      <c r="LK22" s="39"/>
+      <c r="LL22" s="39"/>
+      <c r="LM22" s="55" t="s">
         <v>368</v>
       </c>
-      <c r="LL22" s="44"/>
-      <c r="LM22" s="44"/>
       <c r="LN22" s="44"/>
       <c r="LO22" s="44"/>
       <c r="LP22" s="44"/>
-      <c r="LQ22" s="51" t="s">
+      <c r="LQ22" s="44"/>
+      <c r="LR22" s="44"/>
+      <c r="LS22" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="LR22" s="44"/>
-      <c r="LS22" s="128" t="s">
-        <v>477</v>
-      </c>
       <c r="LT22" s="44"/>
-      <c r="LU22" s="44"/>
+      <c r="LU22" s="139" t="s">
+        <v>479</v>
+      </c>
       <c r="LV22" s="44"/>
-      <c r="LW22" s="38" t="s">
+      <c r="LW22" s="44"/>
+      <c r="LX22" s="44"/>
+      <c r="LY22" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="LX22" s="39"/>
-      <c r="LY22" s="39"/>
       <c r="LZ22" s="39"/>
-      <c r="MA22" s="62" t="s">
+      <c r="MA22" s="39"/>
+      <c r="MB22" s="39"/>
+      <c r="MC22" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="MB22" s="1"/>
-      <c r="MC22" s="1"/>
-      <c r="MD22" s="44"/>
-      <c r="ME22" s="38" t="s">
+      <c r="MD22" s="1"/>
+      <c r="ME22" s="1"/>
+      <c r="MF22" s="44"/>
+      <c r="MG22" s="133" t="s">
         <v>373</v>
       </c>
-      <c r="MF22" s="39"/>
-      <c r="MG22" s="39"/>
-      <c r="MH22" s="39"/>
-      <c r="MI22" s="62" t="s">
+      <c r="MH22" s="86"/>
+      <c r="MI22" s="86"/>
+      <c r="MJ22" s="86"/>
+      <c r="MK22" s="146" t="s">
         <v>378</v>
       </c>
-      <c r="MJ22" s="44"/>
-      <c r="MK22" s="44"/>
-      <c r="ML22" s="44"/>
-      <c r="MM22" s="44"/>
+      <c r="ML22" s="147"/>
+      <c r="MM22" s="147"/>
       <c r="MN22" s="44"/>
-      <c r="MO22" s="38" t="s">
+      <c r="MO22" s="147"/>
+      <c r="MP22" s="147"/>
+      <c r="MQ22" s="133" t="s">
         <v>374</v>
       </c>
-      <c r="MP22" s="39"/>
-      <c r="MQ22" s="22" t="s">
+      <c r="MR22" s="86"/>
+      <c r="MS22" s="107" t="s">
         <v>384</v>
       </c>
-      <c r="MR22" s="39"/>
-      <c r="MS22" s="39"/>
-      <c r="MT22" s="39"/>
-      <c r="MU22" s="39"/>
+      <c r="MT22" s="86"/>
+      <c r="MU22" s="86"/>
       <c r="MV22" s="39"/>
-      <c r="MW22" s="22" t="s">
+      <c r="MW22" s="39"/>
+      <c r="MX22" s="39"/>
+      <c r="MY22" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="MX22" s="39"/>
-      <c r="MY22" s="55" t="s">
+      <c r="MZ22" s="39"/>
+      <c r="NA22" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="MZ22" s="44"/>
-      <c r="NA22" s="7"/>
-      <c r="NB22" s="7"/>
-      <c r="NC22" s="1"/>
+      <c r="NB22" s="44"/>
+      <c r="NC22" s="7"/>
+      <c r="ND22" s="7"/>
+      <c r="NE22" s="1"/>
     </row>
-    <row r="23" spans="2:367" ht="17" thickBot="1">
+    <row r="23" spans="2:369" ht="17" thickBot="1">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="O23" s="142" t="s">
+      <c r="O23" s="132" t="s">
         <v>444</v>
       </c>
       <c r="P23" s="102"/>
@@ -9636,7 +9236,7 @@
       <c r="AS23" s="26"/>
       <c r="AT23" s="26"/>
       <c r="AU23" s="26"/>
-      <c r="AV23" s="141" t="s">
+      <c r="AV23" s="131" t="s">
         <v>440</v>
       </c>
       <c r="AW23" s="84"/>
@@ -9772,7 +9372,7 @@
       </c>
       <c r="FF23" s="7"/>
       <c r="FG23" s="7"/>
-      <c r="FK23" s="112" t="s">
+      <c r="FK23" s="111" t="s">
         <v>315</v>
       </c>
       <c r="FL23" s="1"/>
@@ -9798,8 +9398,8 @@
       <c r="FZ23" s="39"/>
       <c r="GA23" s="39"/>
       <c r="GB23" s="22"/>
-      <c r="GC23" s="152" t="s">
-        <v>471</v>
+      <c r="GC23" s="107" t="s">
+        <v>475</v>
       </c>
       <c r="GD23" s="22"/>
       <c r="GE23" s="22" t="s">
@@ -9884,202 +9484,204 @@
       </c>
       <c r="IH23" s="68"/>
       <c r="II23" s="68"/>
-      <c r="IJ23" s="40" t="s">
+      <c r="IJ23" s="68"/>
+      <c r="IK23" s="68"/>
+      <c r="IL23" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="IK23" s="40" t="s">
+      <c r="IM23" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="IL23" s="40"/>
-      <c r="IM23" s="40"/>
-      <c r="IN23" s="19"/>
-      <c r="IO23" s="48" t="s">
+      <c r="IN23" s="40"/>
+      <c r="IO23" s="40"/>
+      <c r="IP23" s="19"/>
+      <c r="IQ23" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="IP23" s="40"/>
-      <c r="IQ23" s="34"/>
-      <c r="IR23" s="40" t="s">
+      <c r="IR23" s="40"/>
+      <c r="IS23" s="34"/>
+      <c r="IT23" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="IS23" s="40" t="s">
+      <c r="IU23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="IT23" s="40"/>
-      <c r="IU23" s="40"/>
-      <c r="IV23" s="48" t="s">
+      <c r="IV23" s="40"/>
+      <c r="IW23" s="40"/>
+      <c r="IX23" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="IW23" s="54" t="s">
+      <c r="IY23" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="IX23" s="71"/>
-      <c r="IY23" s="71"/>
       <c r="IZ23" s="71"/>
-      <c r="JA23" s="15"/>
-      <c r="JB23" s="95" t="s">
+      <c r="JA23" s="71"/>
+      <c r="JB23" s="71"/>
+      <c r="JC23" s="15"/>
+      <c r="JD23" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="JC23" s="72" t="s">
+      <c r="JE23" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="JD23" s="40" t="s">
+      <c r="JF23" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="JE23" s="40" t="s">
+      <c r="JG23" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="JF23" s="40"/>
-      <c r="JG23" s="40" t="s">
+      <c r="JH23" s="40"/>
+      <c r="JI23" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="JH23" s="40"/>
-      <c r="JI23" s="48" t="s">
+      <c r="JJ23" s="40"/>
+      <c r="JK23" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="JJ23" s="40"/>
-      <c r="JK23" s="40"/>
       <c r="JL23" s="40"/>
-      <c r="JM23" s="48" t="s">
+      <c r="JM23" s="40"/>
+      <c r="JN23" s="40"/>
+      <c r="JO23" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="JN23" s="40"/>
-      <c r="JO23" s="40"/>
       <c r="JP23" s="40"/>
-      <c r="JQ23" s="48" t="s">
+      <c r="JQ23" s="40"/>
+      <c r="JR23" s="40"/>
+      <c r="JS23" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="JR23" s="48"/>
-      <c r="JS23" s="48"/>
-      <c r="JT23" s="40"/>
-      <c r="JU23" s="60" t="s">
+      <c r="JT23" s="48"/>
+      <c r="JU23" s="48"/>
+      <c r="JV23" s="40"/>
+      <c r="JW23" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="JV23" s="71"/>
-      <c r="JW23" s="71"/>
       <c r="JX23" s="71"/>
       <c r="JY23" s="71"/>
       <c r="JZ23" s="71"/>
-      <c r="KA23" s="46" t="s">
+      <c r="KA23" s="71"/>
+      <c r="KB23" s="71"/>
+      <c r="KC23" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="KB23" s="48"/>
-      <c r="KC23" s="48"/>
       <c r="KD23" s="48"/>
       <c r="KE23" s="48"/>
       <c r="KF23" s="48"/>
-      <c r="KG23" s="48" t="s">
+      <c r="KG23" s="48"/>
+      <c r="KH23" s="48"/>
+      <c r="KI23" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="KH23" s="48"/>
-      <c r="KI23" s="48"/>
       <c r="KJ23" s="48"/>
       <c r="KK23" s="48"/>
       <c r="KL23" s="48"/>
-      <c r="KM23" s="48" t="s">
+      <c r="KM23" s="48"/>
+      <c r="KN23" s="48"/>
+      <c r="KO23" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="KN23" s="48"/>
-      <c r="KO23" s="48"/>
       <c r="KP23" s="48"/>
-      <c r="KQ23" s="48" t="s">
+      <c r="KQ23" s="48"/>
+      <c r="KR23" s="48"/>
+      <c r="KS23" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="KR23" s="48"/>
-      <c r="KS23" s="40" t="s">
+      <c r="KT23" s="48"/>
+      <c r="KU23" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="KT23" s="40"/>
-      <c r="KU23" s="40" t="s">
+      <c r="KV23" s="40"/>
+      <c r="KW23" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="KV23" s="40"/>
-      <c r="KW23" s="48" t="s">
+      <c r="KX23" s="40"/>
+      <c r="KY23" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="KX23" s="48"/>
-      <c r="KY23" s="48"/>
       <c r="KZ23" s="48"/>
       <c r="LA23" s="48"/>
       <c r="LB23" s="48"/>
-      <c r="LC23" s="48" t="s">
+      <c r="LC23" s="48"/>
+      <c r="LD23" s="48"/>
+      <c r="LE23" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="LD23" s="48"/>
-      <c r="LE23" s="48"/>
-      <c r="LF23" s="40"/>
-      <c r="LG23" s="40" t="s">
+      <c r="LF23" s="48"/>
+      <c r="LG23" s="48"/>
+      <c r="LH23" s="40"/>
+      <c r="LI23" s="40" t="s">
         <v>365</v>
       </c>
-      <c r="LH23" s="40"/>
-      <c r="LI23" s="40"/>
       <c r="LJ23" s="40"/>
-      <c r="LK23" s="54" t="s">
+      <c r="LK23" s="40"/>
+      <c r="LL23" s="40"/>
+      <c r="LM23" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="LL23" s="44"/>
-      <c r="LM23" s="44"/>
-      <c r="LN23" s="71"/>
-      <c r="LO23" s="71"/>
+      <c r="LN23" s="44"/>
+      <c r="LO23" s="44"/>
       <c r="LP23" s="71"/>
-      <c r="LQ23" s="109"/>
+      <c r="LQ23" s="71"/>
       <c r="LR23" s="71"/>
-      <c r="LS23" s="157" t="s">
-        <v>479</v>
-      </c>
-      <c r="LT23" s="7"/>
-      <c r="LU23" s="7"/>
-      <c r="LV23" s="1"/>
-      <c r="LW23" s="18" t="s">
+      <c r="LS23" s="109"/>
+      <c r="LT23" s="71"/>
+      <c r="LU23" s="127" t="s">
+        <v>480</v>
+      </c>
+      <c r="LV23" s="7"/>
+      <c r="LW23" s="7"/>
+      <c r="LX23" s="1"/>
+      <c r="LY23" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="LX23" s="19"/>
-      <c r="LY23" s="19"/>
       <c r="LZ23" s="19"/>
-      <c r="MA23" s="54" t="s">
+      <c r="MA23" s="19"/>
+      <c r="MB23" s="19"/>
+      <c r="MC23" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="MB23" s="1"/>
-      <c r="MC23" s="1"/>
-      <c r="MD23" s="71"/>
-      <c r="ME23" s="158" t="s">
-        <v>481</v>
-      </c>
-      <c r="MF23" s="40"/>
-      <c r="MG23" s="40"/>
-      <c r="MH23" s="40"/>
-      <c r="MI23" s="54" t="s">
+      <c r="MD23" s="1"/>
+      <c r="ME23" s="1"/>
+      <c r="MF23" s="71"/>
+      <c r="MG23" s="141" t="s">
+        <v>482</v>
+      </c>
+      <c r="MH23" s="87"/>
+      <c r="MI23" s="87"/>
+      <c r="MJ23" s="87"/>
+      <c r="MK23" s="148" t="s">
         <v>383</v>
       </c>
-      <c r="MJ23" s="71"/>
-      <c r="MK23" s="71"/>
-      <c r="ML23" s="71"/>
-      <c r="MM23" s="71"/>
+      <c r="ML23" s="149"/>
+      <c r="MM23" s="149"/>
       <c r="MN23" s="71"/>
-      <c r="MO23" s="158" t="s">
-        <v>485</v>
-      </c>
-      <c r="MP23" s="40"/>
-      <c r="MQ23" s="48" t="s">
+      <c r="MO23" s="149"/>
+      <c r="MP23" s="149"/>
+      <c r="MQ23" s="141" t="s">
+        <v>486</v>
+      </c>
+      <c r="MR23" s="87"/>
+      <c r="MS23" s="106" t="s">
         <v>379</v>
       </c>
-      <c r="MR23" s="40"/>
-      <c r="MS23" s="40"/>
-      <c r="MT23" s="40"/>
-      <c r="MU23" s="40"/>
+      <c r="MT23" s="87"/>
+      <c r="MU23" s="87"/>
       <c r="MV23" s="40"/>
-      <c r="MW23" s="48" t="s">
+      <c r="MW23" s="40"/>
+      <c r="MX23" s="40"/>
+      <c r="MY23" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="MX23" s="40"/>
-      <c r="MY23" s="54" t="s">
+      <c r="MZ23" s="40"/>
+      <c r="NA23" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="MZ23" s="71"/>
-      <c r="NA23" s="7"/>
-      <c r="NB23" s="7"/>
-      <c r="NC23" s="1"/>
+      <c r="NB23" s="71"/>
+      <c r="NC23" s="7"/>
+      <c r="ND23" s="7"/>
+      <c r="NE23" s="1"/>
     </row>
-    <row r="24" spans="2:367" ht="16" thickBot="1">
+    <row r="24" spans="2:369" ht="16" thickBot="1">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -10269,192 +9871,194 @@
       </c>
       <c r="IH24" s="2"/>
       <c r="II24" s="2"/>
-      <c r="IJ24" s="8" t="s">
+      <c r="IJ24" s="2"/>
+      <c r="IK24" s="2"/>
+      <c r="IL24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="IK24" s="8" t="s">
+      <c r="IM24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="IL24" s="2"/>
-      <c r="IM24" s="2"/>
-      <c r="IN24" s="8" t="s">
+      <c r="IN24" s="2"/>
+      <c r="IO24" s="2"/>
+      <c r="IP24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="IO24" s="2" t="s">
+      <c r="IQ24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IP24" s="2"/>
-      <c r="IQ24" s="2"/>
-      <c r="IR24" s="2" t="s">
+      <c r="IR24" s="2"/>
+      <c r="IS24" s="2"/>
+      <c r="IT24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="IS24" s="2" t="s">
+      <c r="IU24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IT24" s="2"/>
-      <c r="IU24" s="2"/>
-      <c r="IV24" s="8" t="s">
+      <c r="IV24" s="2"/>
+      <c r="IW24" s="2"/>
+      <c r="IX24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="IW24" s="8" t="s">
+      <c r="IY24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="IX24" s="2"/>
-      <c r="IY24" s="2"/>
       <c r="IZ24" s="2"/>
-      <c r="JB24" s="2" t="s">
+      <c r="JA24" s="2"/>
+      <c r="JB24" s="2"/>
+      <c r="JD24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="JC24" s="2" t="s">
+      <c r="JE24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="JD24" s="8" t="s">
+      <c r="JF24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="JE24" s="8" t="s">
+      <c r="JG24" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="JG24" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="JI24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="JM24" s="2" t="s">
+      <c r="JK24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="JQ24" s="2" t="s">
+      <c r="JO24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="JU24" s="2" t="s">
+      <c r="JS24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="JV24" s="2"/>
-      <c r="JW24" s="2"/>
+      <c r="JW24" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="JX24" s="2"/>
       <c r="JY24" s="2"/>
       <c r="JZ24" s="2"/>
-      <c r="KA24" s="2" t="s">
+      <c r="KA24" s="2"/>
+      <c r="KB24" s="2"/>
+      <c r="KC24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KB24" s="2"/>
-      <c r="KC24" s="2"/>
       <c r="KD24" s="2"/>
       <c r="KE24" s="2"/>
       <c r="KF24" s="2"/>
-      <c r="KG24" s="2" t="s">
+      <c r="KG24" s="2"/>
+      <c r="KH24" s="2"/>
+      <c r="KI24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KH24" s="2"/>
-      <c r="KI24" s="2"/>
       <c r="KJ24" s="2"/>
       <c r="KK24" s="2"/>
       <c r="KL24" s="2"/>
-      <c r="KM24" s="2" t="s">
+      <c r="KM24" s="2"/>
+      <c r="KN24" s="2"/>
+      <c r="KO24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KN24" s="2"/>
-      <c r="KO24" s="2"/>
       <c r="KP24" s="2"/>
-      <c r="KQ24" s="2" t="s">
+      <c r="KQ24" s="2"/>
+      <c r="KR24" s="2"/>
+      <c r="KS24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KR24" s="2"/>
-      <c r="KS24" s="2"/>
       <c r="KT24" s="2"/>
       <c r="KU24" s="2"/>
       <c r="KV24" s="2"/>
-      <c r="KW24" s="2" t="s">
+      <c r="KW24" s="2"/>
+      <c r="KX24" s="2"/>
+      <c r="KY24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KX24" s="2"/>
-      <c r="KY24" s="2"/>
       <c r="KZ24" s="2"/>
       <c r="LA24" s="2"/>
       <c r="LB24" s="2"/>
-      <c r="LC24" s="2" t="s">
+      <c r="LC24" s="2"/>
+      <c r="LD24" s="2"/>
+      <c r="LE24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LD24" s="2"/>
-      <c r="LE24" s="2"/>
       <c r="LF24" s="2"/>
       <c r="LG24" s="2"/>
       <c r="LH24" s="2"/>
       <c r="LI24" s="2"/>
       <c r="LJ24" s="2"/>
-      <c r="LK24" s="2" t="s">
+      <c r="LK24" s="2"/>
+      <c r="LL24" s="2"/>
+      <c r="LM24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LL24" s="2"/>
-      <c r="LM24" s="2"/>
       <c r="LN24" s="2"/>
       <c r="LO24" s="2"/>
       <c r="LP24" s="2"/>
-      <c r="LQ24" s="2" t="s">
+      <c r="LQ24" s="2"/>
+      <c r="LR24" s="2"/>
+      <c r="LS24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="LR24" s="2"/>
-      <c r="LS24" s="124" t="s">
+      <c r="LT24" s="2"/>
+      <c r="LU24" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="LT24" s="71"/>
-      <c r="LU24" s="71"/>
       <c r="LV24" s="71"/>
-      <c r="LW24" s="71" t="s">
+      <c r="LW24" s="71"/>
+      <c r="LX24" s="71"/>
+      <c r="LY24" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="LX24" s="71"/>
-      <c r="LY24" s="71"/>
       <c r="LZ24" s="71"/>
-      <c r="MA24" s="124" t="s">
+      <c r="MA24" s="71"/>
+      <c r="MB24" s="71"/>
+      <c r="MC24" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="MB24" s="71"/>
-      <c r="MC24" s="71"/>
-      <c r="MD24" s="2"/>
-      <c r="ME24" s="2" t="s">
+      <c r="MD24" s="71"/>
+      <c r="ME24" s="71"/>
+      <c r="MF24" s="2"/>
+      <c r="MG24" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="MF24" s="2"/>
-      <c r="MG24" s="2"/>
-      <c r="MH24" s="2"/>
-      <c r="MI24" s="2" t="s">
+      <c r="MH24" s="145"/>
+      <c r="MI24" s="145"/>
+      <c r="MJ24" s="145"/>
+      <c r="MK24" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="MJ24" s="2"/>
-      <c r="MK24" s="2"/>
-      <c r="ML24" s="2"/>
-      <c r="MM24" s="2"/>
+      <c r="ML24" s="145"/>
+      <c r="MM24" s="145"/>
       <c r="MN24" s="2"/>
-      <c r="MO24" s="2" t="s">
+      <c r="MO24" s="145"/>
+      <c r="MP24" s="145"/>
+      <c r="MQ24" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="MP24" s="2"/>
-      <c r="MQ24" s="2" t="s">
+      <c r="MR24" s="145"/>
+      <c r="MS24" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="MR24" s="2"/>
-      <c r="MS24" s="2"/>
-      <c r="MT24" s="2"/>
-      <c r="MU24" s="2"/>
+      <c r="MT24" s="145"/>
+      <c r="MU24" s="145"/>
       <c r="MV24" s="2"/>
-      <c r="MW24" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="MW24" s="2"/>
       <c r="MX24" s="2"/>
       <c r="MY24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="MZ24" s="2"/>
-      <c r="NA24" s="1"/>
-      <c r="NB24" s="1"/>
+      <c r="NA24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="NB24" s="2"/>
       <c r="NC24" s="1"/>
+      <c r="ND24" s="1"/>
+      <c r="NE24" s="1"/>
     </row>
-    <row r="25" spans="2:367" ht="16" thickBot="1">
+    <row r="25" spans="2:369" ht="16" thickBot="1">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="I25" s="143" t="s">
+      <c r="I25" s="133" t="s">
         <v>446</v>
       </c>
       <c r="J25" s="99"/>
@@ -10556,8 +10160,8 @@
       <c r="BW25" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="BY25" s="148" t="s">
-        <v>468</v>
+      <c r="BY25" s="144" t="s">
+        <v>473</v>
       </c>
       <c r="BZ25" s="22"/>
       <c r="CA25" s="62" t="s">
@@ -10769,7 +10373,7 @@
       </c>
       <c r="HH25" s="44"/>
       <c r="HI25" s="44"/>
-      <c r="HK25" s="134" t="s">
+      <c r="HK25" s="125" t="s">
         <v>64</v>
       </c>
       <c r="HL25" s="39"/>
@@ -10817,257 +10421,259 @@
       <c r="II25" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="IJ25" s="22" t="s">
+      <c r="IJ25" s="39"/>
+      <c r="IK25" s="39"/>
+      <c r="IL25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="IK25" s="62" t="s">
+      <c r="IM25" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="IM25" s="21" t="s">
+      <c r="IO25" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="IN25" s="22"/>
-      <c r="IO25" s="43" t="s">
+      <c r="IP25" s="22"/>
+      <c r="IQ25" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="IP25" s="44" t="s">
+      <c r="IR25" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="IQ25" s="38" t="s">
+      <c r="IS25" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="IR25" s="39" t="s">
+      <c r="IT25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="IS25" s="43" t="s">
+      <c r="IU25" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="IT25" s="44" t="s">
+      <c r="IV25" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="IU25" s="38" t="s">
+      <c r="IW25" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="IV25" s="39" t="s">
+      <c r="IX25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="IW25" s="43" t="s">
+      <c r="IY25" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="IX25" s="7" t="s">
+      <c r="IZ25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="IY25" s="21" t="s">
+      <c r="JA25" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="IZ25" s="22"/>
-      <c r="JA25" s="22"/>
-      <c r="JB25" s="39" t="s">
+      <c r="JB25" s="22"/>
+      <c r="JC25" s="22"/>
+      <c r="JD25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="JC25" s="43" t="s">
+      <c r="JE25" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="JD25" s="94" t="s">
+      <c r="JF25" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="JE25" s="38" t="s">
+      <c r="JG25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="JF25" s="22"/>
-      <c r="JG25" s="43" t="s">
+      <c r="JH25" s="22"/>
+      <c r="JI25" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="JH25" s="7"/>
-      <c r="JI25" s="21" t="s">
+      <c r="JJ25" s="7"/>
+      <c r="JK25" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="JJ25" s="22"/>
-      <c r="JK25" s="43" t="s">
+      <c r="JL25" s="22"/>
+      <c r="JM25" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="JL25" s="85"/>
-      <c r="JM25" s="38" t="s">
+      <c r="JN25" s="85"/>
+      <c r="JO25" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="JN25" s="22"/>
-      <c r="JO25" s="43" t="s">
+      <c r="JP25" s="22"/>
+      <c r="JQ25" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="JP25" s="85"/>
-      <c r="JQ25" s="38" t="s">
+      <c r="JR25" s="85"/>
+      <c r="JS25" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="JR25" s="22"/>
-      <c r="JS25" s="43" t="s">
+      <c r="JT25" s="22"/>
+      <c r="JU25" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="JT25" s="63"/>
-      <c r="JU25" s="78" t="s">
+      <c r="JV25" s="63"/>
+      <c r="JW25" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="JV25" s="79"/>
-      <c r="JW25" s="80" t="s">
+      <c r="JX25" s="79"/>
+      <c r="JY25" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="JX25" s="81"/>
-      <c r="JY25" s="78" t="s">
+      <c r="JZ25" s="81"/>
+      <c r="KA25" s="78" t="s">
         <v>335</v>
       </c>
-      <c r="JZ25" s="113"/>
-      <c r="KA25" s="113" t="s">
+      <c r="KB25" s="112"/>
+      <c r="KC25" s="112" t="s">
         <v>337</v>
       </c>
-      <c r="KB25" s="113"/>
-      <c r="KC25" s="80" t="s">
+      <c r="KD25" s="112"/>
+      <c r="KE25" s="80" t="s">
         <v>339</v>
       </c>
-      <c r="KD25" s="81"/>
-      <c r="KE25" s="78" t="s">
+      <c r="KF25" s="81"/>
+      <c r="KG25" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="KF25" s="113"/>
-      <c r="KG25" s="113" t="s">
+      <c r="KH25" s="112"/>
+      <c r="KI25" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="KH25" s="113"/>
-      <c r="KI25" s="118" t="s">
+      <c r="KJ25" s="112"/>
+      <c r="KK25" s="117" t="s">
         <v>344</v>
       </c>
-      <c r="KJ25" s="81"/>
-      <c r="KK25" s="119" t="s">
+      <c r="KL25" s="81"/>
+      <c r="KM25" s="118" t="s">
         <v>345</v>
       </c>
-      <c r="KL25" s="113"/>
-      <c r="KM25" s="80" t="s">
+      <c r="KN25" s="112"/>
+      <c r="KO25" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="KN25" s="81"/>
-      <c r="KO25" s="78" t="s">
+      <c r="KP25" s="81"/>
+      <c r="KQ25" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="KP25" s="113"/>
-      <c r="KQ25" s="80" t="s">
+      <c r="KR25" s="112"/>
+      <c r="KS25" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="KR25" s="81"/>
-      <c r="KS25" s="78" t="s">
+      <c r="KT25" s="81"/>
+      <c r="KU25" s="78" t="s">
         <v>354</v>
       </c>
-      <c r="KT25" s="113"/>
-      <c r="KU25" s="80" t="s">
+      <c r="KV25" s="112"/>
+      <c r="KW25" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="KV25" s="81"/>
-      <c r="KW25" s="119" t="s">
+      <c r="KX25" s="81"/>
+      <c r="KY25" s="118" t="s">
         <v>356</v>
       </c>
-      <c r="KX25" s="113"/>
-      <c r="KY25" s="80" t="s">
+      <c r="KZ25" s="112"/>
+      <c r="LA25" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="KZ25" s="81"/>
-      <c r="LA25" s="21" t="s">
+      <c r="LB25" s="81"/>
+      <c r="LC25" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="LB25" s="113"/>
-      <c r="LC25" s="120" t="s">
+      <c r="LD25" s="112"/>
+      <c r="LE25" s="119" t="s">
         <v>362</v>
       </c>
-      <c r="LD25" s="113"/>
-      <c r="LE25" s="80" t="s">
+      <c r="LF25" s="112"/>
+      <c r="LG25" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="LF25" s="81"/>
-      <c r="LG25" s="78" t="s">
+      <c r="LH25" s="81"/>
+      <c r="LI25" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="LH25" s="113"/>
-      <c r="LI25" s="80" t="s">
+      <c r="LJ25" s="112"/>
+      <c r="LK25" s="80" t="s">
         <v>367</v>
       </c>
-      <c r="LJ25" s="81"/>
-      <c r="LK25" s="78" t="s">
+      <c r="LL25" s="81"/>
+      <c r="LM25" s="78" t="s">
         <v>370</v>
       </c>
-      <c r="LL25" s="113"/>
-      <c r="LM25" s="80" t="s">
+      <c r="LN25" s="112"/>
+      <c r="LO25" s="80" t="s">
         <v>371</v>
       </c>
-      <c r="LN25" s="81"/>
-      <c r="LO25" s="81"/>
       <c r="LP25" s="81"/>
       <c r="LQ25" s="81"/>
       <c r="LR25" s="81"/>
-      <c r="LS25" s="124" t="s">
+      <c r="LS25" s="81"/>
+      <c r="LT25" s="81"/>
+      <c r="LU25" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="LT25" s="71"/>
-      <c r="LU25" s="71"/>
-      <c r="LV25" s="81"/>
-      <c r="LW25" s="122" t="s">
+      <c r="LV25" s="71"/>
+      <c r="LW25" s="71"/>
+      <c r="LX25" s="81"/>
+      <c r="LY25" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="LX25" s="122"/>
-      <c r="LY25" s="122"/>
-      <c r="LZ25" s="122"/>
-      <c r="MA25" s="74" t="s">
+      <c r="LZ25" s="121"/>
+      <c r="MA25" s="121"/>
+      <c r="MB25" s="121"/>
+      <c r="MC25" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="MB25" s="73"/>
-      <c r="MC25" s="110" t="s">
+      <c r="MD25" s="73"/>
+      <c r="ME25" s="110" t="s">
         <v>401</v>
       </c>
-      <c r="MD25" s="81"/>
-      <c r="ME25" s="125" t="s">
+      <c r="MF25" s="81"/>
+      <c r="MG25" s="150" t="s">
         <v>402</v>
       </c>
-      <c r="MF25" s="126"/>
-      <c r="MG25" s="110" t="s">
+      <c r="MH25" s="151"/>
+      <c r="MI25" s="152" t="s">
         <v>403</v>
       </c>
-      <c r="MH25" s="81"/>
-      <c r="MI25" s="159" t="s">
-        <v>482</v>
-      </c>
-      <c r="MJ25" s="126"/>
-      <c r="MK25" s="160" t="s">
+      <c r="MJ25" s="153"/>
+      <c r="MK25" s="150" t="s">
         <v>483</v>
       </c>
-      <c r="ML25" s="81"/>
-      <c r="MM25" s="159" t="s">
-        <v>486</v>
-      </c>
-      <c r="MN25" s="126"/>
-      <c r="MO25" s="160" t="s">
+      <c r="ML25" s="151"/>
+      <c r="MM25" s="154" t="s">
+        <v>484</v>
+      </c>
+      <c r="MN25" s="81"/>
+      <c r="MO25" s="150" t="s">
         <v>487</v>
       </c>
-      <c r="MP25" s="81"/>
-      <c r="MQ25" s="149" t="s">
+      <c r="MP25" s="151"/>
+      <c r="MQ25" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="MR25" s="153"/>
+      <c r="MS25" s="156" t="s">
         <v>489</v>
       </c>
-      <c r="MR25" s="126"/>
-      <c r="MS25" s="151" t="s">
-        <v>488</v>
-      </c>
-      <c r="MT25" s="81"/>
-      <c r="MU25" s="149" t="s">
+      <c r="MT25" s="151"/>
+      <c r="MU25" s="152" t="s">
         <v>490</v>
       </c>
-      <c r="MV25" s="126"/>
-      <c r="MW25" s="151" t="s">
+      <c r="MV25" s="81"/>
+      <c r="MW25" s="156" t="s">
         <v>491</v>
       </c>
-      <c r="MX25" s="81"/>
-      <c r="MY25" s="161" t="s">
+      <c r="MX25" s="151"/>
+      <c r="MY25" s="152" t="s">
         <v>492</v>
       </c>
-      <c r="MZ25" s="81"/>
-      <c r="NA25" s="1"/>
-      <c r="NB25" s="1"/>
+      <c r="MZ25" s="153"/>
+      <c r="NA25" s="157" t="s">
+        <v>493</v>
+      </c>
+      <c r="NB25" s="81"/>
       <c r="NC25" s="1"/>
+      <c r="ND25" s="1"/>
+      <c r="NE25" s="1"/>
     </row>
-    <row r="26" spans="2:367" ht="16" thickBot="1">
+    <row r="26" spans="2:369" ht="16" thickBot="1">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -11091,14 +10697,14 @@
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
-      <c r="Y26" s="132" t="s">
-        <v>496</v>
+      <c r="Y26" s="140" t="s">
+        <v>163</v>
       </c>
       <c r="Z26" s="71"/>
       <c r="AA26" s="71"/>
       <c r="AB26" s="7"/>
-      <c r="AF26" s="111" t="s">
-        <v>495</v>
+      <c r="AF26" s="141" t="s">
+        <v>467</v>
       </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="104"/>
@@ -11329,11 +10935,11 @@
       <c r="FR26" s="7"/>
       <c r="FS26" s="7"/>
       <c r="FT26" s="7"/>
-      <c r="FU26" s="149" t="s">
+      <c r="FU26" s="74" t="s">
         <v>320</v>
       </c>
-      <c r="FV26" s="150"/>
-      <c r="FW26" s="151" t="s">
+      <c r="FV26" s="73"/>
+      <c r="FW26" s="110" t="s">
         <v>319</v>
       </c>
       <c r="FX26" s="1"/>
@@ -11380,7 +10986,7 @@
       </c>
       <c r="HH26" s="7"/>
       <c r="HI26" s="7"/>
-      <c r="HK26" s="135" t="s">
+      <c r="HK26" s="126" t="s">
         <v>65</v>
       </c>
       <c r="HL26" s="19"/>
@@ -11416,181 +11022,181 @@
       <c r="II26" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="IJ26" s="91" t="s">
+      <c r="IJ26" s="158"/>
+      <c r="IK26" s="158"/>
+      <c r="IL26" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="IK26" s="76" t="s">
+      <c r="IM26" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="IL26" s="81" t="s">
+      <c r="IN26" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="IM26" s="89" t="s">
+      <c r="IO26" s="89" t="s">
         <v>395</v>
       </c>
-      <c r="IN26" s="77"/>
-      <c r="IO26" s="154" t="s">
+      <c r="IP26" s="77"/>
+      <c r="IQ26" s="137" t="s">
         <v>416</v>
       </c>
-      <c r="IP26" s="6"/>
-      <c r="IQ26" s="18"/>
-      <c r="IR26" s="19"/>
-      <c r="IS26" s="20"/>
-      <c r="IT26" s="7"/>
-      <c r="IU26" s="130" t="s">
+      <c r="IR26" s="6"/>
+      <c r="IS26" s="18"/>
+      <c r="IT26" s="19"/>
+      <c r="IU26" s="20"/>
+      <c r="IV26" s="7"/>
+      <c r="IW26" s="141" t="s">
         <v>420</v>
       </c>
-      <c r="IV26" s="19"/>
-      <c r="IW26" s="20"/>
-      <c r="IX26" s="44" t="s">
+      <c r="IX26" s="19"/>
+      <c r="IY26" s="20"/>
+      <c r="IZ26" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="IY26" s="46" t="s">
+      <c r="JA26" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="IZ26" s="48"/>
-      <c r="JA26" s="19"/>
-      <c r="JB26" s="19" t="s">
+      <c r="JB26" s="48"/>
+      <c r="JC26" s="19"/>
+      <c r="JD26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="JC26" s="20" t="s">
+      <c r="JE26" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="JD26" s="63" t="s">
+      <c r="JF26" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="JE26" s="18"/>
-      <c r="JF26" s="19"/>
-      <c r="JG26" s="20"/>
-      <c r="JI26" s="46" t="s">
+      <c r="JG26" s="18"/>
+      <c r="JH26" s="19"/>
+      <c r="JI26" s="20"/>
+      <c r="JK26" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="JJ26" s="19"/>
-      <c r="JK26" s="131" t="s">
-        <v>473</v>
-      </c>
-      <c r="JL26" s="85"/>
-      <c r="JM26" s="18"/>
-      <c r="JN26" s="19"/>
-      <c r="JO26" s="20"/>
-      <c r="JP26" s="85"/>
-      <c r="JQ26" s="18"/>
-      <c r="JR26" s="19"/>
-      <c r="JS26" s="20"/>
-      <c r="JT26" s="63"/>
-      <c r="JU26" s="18"/>
-      <c r="JV26" s="19"/>
-      <c r="JW26" s="20"/>
-      <c r="JX26" s="7"/>
-      <c r="JY26" s="18" t="s">
+      <c r="JL26" s="19"/>
+      <c r="JM26" s="140" t="s">
+        <v>476</v>
+      </c>
+      <c r="JN26" s="85"/>
+      <c r="JO26" s="18"/>
+      <c r="JP26" s="19"/>
+      <c r="JQ26" s="20"/>
+      <c r="JR26" s="85"/>
+      <c r="JS26" s="18"/>
+      <c r="JT26" s="19"/>
+      <c r="JU26" s="20"/>
+      <c r="JV26" s="63"/>
+      <c r="JW26" s="18"/>
+      <c r="JX26" s="19"/>
+      <c r="JY26" s="20"/>
+      <c r="JZ26" s="7"/>
+      <c r="KA26" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="JZ26" s="19"/>
-      <c r="KA26" s="19" t="s">
+      <c r="KB26" s="19"/>
+      <c r="KC26" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="KB26" s="19"/>
-      <c r="KC26" s="20" t="s">
+      <c r="KD26" s="19"/>
+      <c r="KE26" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="KD26" s="7"/>
-      <c r="KE26" s="18" t="s">
+      <c r="KF26" s="7"/>
+      <c r="KG26" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="KF26" s="19"/>
-      <c r="KG26" s="19" t="s">
+      <c r="KH26" s="19"/>
+      <c r="KI26" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="KH26" s="19"/>
-      <c r="KI26" s="54" t="s">
+      <c r="KJ26" s="19"/>
+      <c r="KK26" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="KJ26" s="44"/>
-      <c r="KK26" s="46" t="s">
+      <c r="KL26" s="44"/>
+      <c r="KM26" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="KL26" s="48"/>
-      <c r="KM26" s="60" t="s">
+      <c r="KN26" s="48"/>
+      <c r="KO26" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="KN26" s="44"/>
-      <c r="KO26" s="72" t="s">
+      <c r="KP26" s="44"/>
+      <c r="KQ26" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="KP26" s="40"/>
-      <c r="KQ26" s="60" t="s">
+      <c r="KR26" s="40"/>
+      <c r="KS26" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="KR26" s="7"/>
-      <c r="KS26" s="18"/>
-      <c r="KT26" s="19"/>
-      <c r="KU26" s="20" t="s">
+      <c r="KT26" s="7"/>
+      <c r="KU26" s="18"/>
+      <c r="KV26" s="19"/>
+      <c r="KW26" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="KV26" s="7"/>
-      <c r="KW26" s="46" t="s">
+      <c r="KX26" s="7"/>
+      <c r="KY26" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="KX26" s="19"/>
-      <c r="KY26" s="20" t="s">
+      <c r="KZ26" s="19"/>
+      <c r="LA26" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="KZ26" s="7"/>
-      <c r="LA26" s="121" t="s">
+      <c r="LB26" s="7"/>
+      <c r="LC26" s="120" t="s">
         <v>361</v>
       </c>
-      <c r="LB26" s="19"/>
-      <c r="LC26" s="48" t="s">
+      <c r="LD26" s="19"/>
+      <c r="LE26" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="LD26" s="19"/>
-      <c r="LE26" s="20"/>
-      <c r="LF26" s="7"/>
-      <c r="LG26" s="18"/>
-      <c r="LH26" s="19"/>
-      <c r="LI26" s="20" t="s">
+      <c r="LF26" s="19"/>
+      <c r="LG26" s="20"/>
+      <c r="LH26" s="7"/>
+      <c r="LI26" s="18"/>
+      <c r="LJ26" s="19"/>
+      <c r="LK26" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="LJ26" s="7"/>
-      <c r="LK26" s="18" t="s">
+      <c r="LL26" s="7"/>
+      <c r="LM26" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="LL26" s="19"/>
-      <c r="LM26" s="60" t="s">
+      <c r="LN26" s="19"/>
+      <c r="LO26" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="LN26" s="7" t="s">
+      <c r="LP26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="LO26" s="7"/>
-      <c r="LP26" s="7"/>
       <c r="LQ26" s="7"/>
       <c r="LR26" s="7"/>
-      <c r="LS26" s="74" t="s">
+      <c r="LS26" s="7"/>
+      <c r="LT26" s="7"/>
+      <c r="LU26" s="74" t="s">
         <v>398</v>
       </c>
-      <c r="LT26" s="73"/>
-      <c r="LU26" s="110" t="s">
+      <c r="LV26" s="73"/>
+      <c r="LW26" s="110" t="s">
         <v>399</v>
-      </c>
-      <c r="LV26" s="7"/>
-      <c r="LW26" s="7" t="s">
-        <v>4</v>
       </c>
       <c r="LX26" s="7"/>
       <c r="LY26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="LZ26" s="7"/>
-      <c r="MA26" s="22" t="s">
+      <c r="MA26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="MB26" s="22"/>
+      <c r="MB26" s="7"/>
       <c r="MC26" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="MD26" s="7"/>
-      <c r="ME26" s="7"/>
+      <c r="MD26" s="22"/>
+      <c r="ME26" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="MF26" s="7"/>
       <c r="MG26" s="7"/>
       <c r="MH26" s="7"/>
@@ -11612,11 +11218,13 @@
       <c r="MX26" s="7"/>
       <c r="MY26" s="7"/>
       <c r="MZ26" s="7"/>
-      <c r="NA26" s="1"/>
-      <c r="NB26" s="1"/>
+      <c r="NA26" s="7"/>
+      <c r="NB26" s="7"/>
       <c r="NC26" s="1"/>
+      <c r="ND26" s="1"/>
+      <c r="NE26" s="1"/>
     </row>
-    <row r="27" spans="2:367" ht="16" thickBot="1">
+    <row r="27" spans="2:369" ht="16" thickBot="1">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -11707,8 +11315,8 @@
       <c r="FV27" s="7"/>
       <c r="FW27" s="7"/>
       <c r="FX27" s="1"/>
-      <c r="FY27" s="111" t="s">
-        <v>470</v>
+      <c r="FY27" s="141" t="s">
+        <v>474</v>
       </c>
       <c r="FZ27" s="19"/>
       <c r="GA27" s="20"/>
@@ -11749,34 +11357,34 @@
       <c r="II27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="IJ27" s="2" t="s">
+      <c r="IJ27" s="2"/>
+      <c r="IK27" s="2"/>
+      <c r="IL27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="IK27" s="7"/>
-      <c r="IL27" s="7"/>
-      <c r="IM27" s="6" t="s">
+      <c r="IM27" s="7"/>
+      <c r="IN27" s="7"/>
+      <c r="IO27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="IN27" s="7"/>
-      <c r="IO27" s="7"/>
       <c r="IP27" s="7"/>
-      <c r="IR27" s="1" t="s">
+      <c r="IQ27" s="7"/>
+      <c r="IR27" s="7"/>
+      <c r="IT27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="IX27" s="6" t="s">
+      <c r="IZ27" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="IY27" s="2" t="s">
+      <c r="JA27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KE27" s="2" t="s">
+      <c r="KG27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="KG27" s="156" t="s">
+      <c r="KI27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="LC27" s="1"/>
-      <c r="LD27" s="1"/>
       <c r="LE27" s="1"/>
       <c r="LF27" s="1"/>
       <c r="LG27" s="1"/>
@@ -11791,15 +11399,15 @@
       <c r="LP27" s="1"/>
       <c r="LQ27" s="1"/>
       <c r="LR27" s="1"/>
-      <c r="LS27" s="7"/>
-      <c r="LT27" s="7"/>
+      <c r="LS27" s="1"/>
+      <c r="LT27" s="1"/>
       <c r="LU27" s="7"/>
-      <c r="LV27" s="1"/>
+      <c r="LV27" s="7"/>
       <c r="LW27" s="7"/>
-      <c r="LX27" s="7"/>
+      <c r="LX27" s="1"/>
       <c r="LY27" s="7"/>
-      <c r="LZ27" s="1"/>
-      <c r="MA27" s="1"/>
+      <c r="LZ27" s="7"/>
+      <c r="MA27" s="7"/>
       <c r="MB27" s="1"/>
       <c r="MC27" s="1"/>
       <c r="MD27" s="1"/>
@@ -11813,11 +11421,11 @@
       <c r="ML27" s="1"/>
       <c r="MM27" s="1"/>
       <c r="MN27" s="1"/>
-      <c r="MO27" s="1" t="s">
+      <c r="MO27" s="1"/>
+      <c r="MP27" s="1"/>
+      <c r="MQ27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="MP27" s="1"/>
-      <c r="MQ27" s="1"/>
       <c r="MR27" s="1"/>
       <c r="MS27" s="1"/>
       <c r="MT27" s="1"/>
@@ -11830,8 +11438,10 @@
       <c r="NA27" s="1"/>
       <c r="NB27" s="1"/>
       <c r="NC27" s="1"/>
+      <c r="ND27" s="1"/>
+      <c r="NE27" s="1"/>
     </row>
-    <row r="28" spans="2:367" ht="16" thickBot="1">
+    <row r="28" spans="2:369" ht="16" thickBot="1">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -12071,38 +11681,40 @@
       <c r="IE28" s="110" t="s">
         <v>397</v>
       </c>
-      <c r="IG28" s="153" t="s">
+      <c r="IG28" s="136" t="s">
         <v>418</v>
       </c>
-      <c r="II28" s="42" t="s">
+      <c r="II28" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="IJ28" s="7" t="s">
+      <c r="IJ28" s="96"/>
+      <c r="IK28" s="159" t="s">
+        <v>494</v>
+      </c>
+      <c r="IL28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="IM28" s="153" t="s">
+      <c r="IO28" s="136" t="s">
         <v>419</v>
       </c>
-      <c r="IX28" s="44" t="s">
+      <c r="IZ28" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="IY28" s="74" t="s">
+      <c r="JA28" s="74" t="s">
         <v>404</v>
       </c>
-      <c r="IZ28" s="96" t="s">
+      <c r="JB28" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="JA28" s="110" t="s">
+      <c r="JC28" s="110" t="s">
         <v>405</v>
       </c>
-      <c r="KE28" s="155" t="s">
-        <v>475</v>
-      </c>
-      <c r="KG28" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="LC28" s="1"/>
-      <c r="LD28" s="1"/>
+      <c r="KG28" s="136" t="s">
+        <v>477</v>
+      </c>
+      <c r="KI28" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="LE28" s="1"/>
       <c r="LF28" s="1"/>
       <c r="LG28" s="1"/>
@@ -12121,13 +11733,13 @@
       <c r="LT28" s="1"/>
       <c r="LU28" s="1"/>
       <c r="LV28" s="1"/>
-      <c r="LW28" s="7" t="s">
+      <c r="LW28" s="1"/>
+      <c r="LX28" s="1"/>
+      <c r="LY28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="LX28" s="7"/>
-      <c r="LY28" s="7"/>
-      <c r="LZ28" s="1"/>
-      <c r="MA28" s="1"/>
+      <c r="LZ28" s="7"/>
+      <c r="MA28" s="7"/>
       <c r="MB28" s="1"/>
       <c r="MC28" s="1"/>
       <c r="MD28" s="1"/>
@@ -12156,8 +11768,10 @@
       <c r="NA28" s="1"/>
       <c r="NB28" s="1"/>
       <c r="NC28" s="1"/>
+      <c r="ND28" s="1"/>
+      <c r="NE28" s="1"/>
     </row>
-    <row r="29" spans="2:367" ht="16" thickBot="1">
+    <row r="29" spans="2:369" ht="16" thickBot="1">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -12279,8 +11893,6 @@
       </c>
       <c r="HO29" s="50"/>
       <c r="HQ29" s="50"/>
-      <c r="LC29" s="1"/>
-      <c r="LD29" s="1"/>
       <c r="LE29" s="1"/>
       <c r="LF29" s="1"/>
       <c r="LG29" s="1"/>
@@ -12332,8 +11944,10 @@
       <c r="NA29" s="1"/>
       <c r="NB29" s="1"/>
       <c r="NC29" s="1"/>
+      <c r="ND29" s="1"/>
+      <c r="NE29" s="1"/>
     </row>
-    <row r="30" spans="2:367" ht="16" thickBot="1">
+    <row r="30" spans="2:369" ht="16" thickBot="1">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -12395,8 +12009,6 @@
       <c r="GD30" s="1"/>
       <c r="GE30" s="1"/>
       <c r="GF30" s="1"/>
-      <c r="LC30" s="1"/>
-      <c r="LD30" s="1"/>
       <c r="LE30" s="1"/>
       <c r="LF30" s="1"/>
       <c r="LG30" s="1"/>
@@ -12448,8 +12060,10 @@
       <c r="NA30" s="1"/>
       <c r="NB30" s="1"/>
       <c r="NC30" s="1"/>
+      <c r="ND30" s="1"/>
+      <c r="NE30" s="1"/>
     </row>
-    <row r="31" spans="2:367" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="31" spans="2:369" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="B31" s="1"/>
       <c r="C31" s="21" t="s">
         <v>143</v>
@@ -12526,10 +12140,10 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="HK31" s="9" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="32" spans="2:367" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="32" spans="2:369" s="9" customFormat="1" ht="16" thickBot="1">
       <c r="B32" s="1"/>
       <c r="C32" s="46" t="s">
         <v>144</v>
@@ -12585,72 +12199,72 @@
       <c r="AX32" s="1"/>
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
-      <c r="DY32" s="114"/>
-      <c r="DZ32" s="114"/>
-      <c r="EA32" s="114"/>
-      <c r="EB32" s="114"/>
-      <c r="EC32" s="114"/>
-      <c r="ED32" s="114"/>
-      <c r="EE32" s="114"/>
-      <c r="EF32" s="114"/>
-      <c r="EG32" s="114"/>
+      <c r="DY32" s="113"/>
+      <c r="DZ32" s="113"/>
+      <c r="EA32" s="113"/>
+      <c r="EB32" s="113"/>
+      <c r="EC32" s="113"/>
+      <c r="ED32" s="113"/>
+      <c r="EE32" s="113"/>
+      <c r="EF32" s="113"/>
+      <c r="EG32" s="113"/>
       <c r="HK32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="IO32" s="59" t="s">
+      <c r="IQ32" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="IP32" s="59"/>
-      <c r="IQ32" s="59"/>
       <c r="IR32" s="59"/>
+      <c r="IS32" s="59"/>
+      <c r="IT32" s="59"/>
     </row>
-    <row r="33" spans="29:365" s="9" customFormat="1">
+    <row r="33" spans="29:367" s="9" customFormat="1">
       <c r="AC33" s="14"/>
       <c r="AD33" s="16"/>
       <c r="AE33" s="16"/>
-      <c r="DY33" s="114"/>
-      <c r="DZ33" s="114"/>
-      <c r="EA33" s="114"/>
-      <c r="EB33" s="114"/>
-      <c r="EC33" s="114"/>
-      <c r="ED33" s="114"/>
-      <c r="EE33" s="114"/>
-      <c r="EF33" s="114"/>
-      <c r="EG33" s="114"/>
-      <c r="HK33" s="162" t="s">
+      <c r="DY33" s="113"/>
+      <c r="DZ33" s="113"/>
+      <c r="EA33" s="113"/>
+      <c r="EB33" s="113"/>
+      <c r="EC33" s="113"/>
+      <c r="ED33" s="113"/>
+      <c r="EE33" s="113"/>
+      <c r="EF33" s="113"/>
+      <c r="EG33" s="113"/>
+      <c r="HK33" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="LW33" s="9" t="s">
+      <c r="LY33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="ME33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="MY33" s="9" t="s">
+      <c r="MG33" s="9" t="s">
         <v>4</v>
       </c>
       <c r="NA33" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="NC33" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="29:365" s="115" customFormat="1">
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="LW34" s="115" t="s">
+    <row r="34" spans="29:367" s="114" customFormat="1">
+      <c r="AC34" s="115"/>
+      <c r="AD34" s="116"/>
+      <c r="AE34" s="116"/>
+      <c r="LY34" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="ME34" s="115" t="s">
+      <c r="MG34" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="MY34" s="115" t="s">
+      <c r="NA34" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="NA34" s="115" t="s">
+      <c r="NC34" s="114" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="29:365" s="9" customFormat="1">
+    <row r="35" spans="29:367" s="9" customFormat="1">
       <c r="AC35" s="14"/>
       <c r="AD35" s="16"/>
       <c r="AE35" s="16"/>
@@ -12767,8 +12381,6 @@
       <c r="FH35" s="1"/>
       <c r="FI35" s="1"/>
       <c r="FJ35" s="1"/>
-      <c r="LS35"/>
-      <c r="LT35"/>
       <c r="LU35"/>
       <c r="LV35"/>
       <c r="LW35"/>
@@ -12802,8 +12414,10 @@
       <c r="MY35"/>
       <c r="MZ35"/>
       <c r="NA35"/>
+      <c r="NB35"/>
+      <c r="NC35"/>
     </row>
-    <row r="36" spans="29:365" s="9" customFormat="1">
+    <row r="36" spans="29:367" s="9" customFormat="1">
       <c r="AC36" s="14"/>
       <c r="AD36" s="16"/>
       <c r="AE36" s="16"/>
@@ -12920,20 +12534,20 @@
       <c r="FH36" s="1"/>
       <c r="FI36" s="1"/>
       <c r="FJ36" s="1"/>
-      <c r="LW36" s="9" t="s">
+      <c r="LY36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="ME36" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="MY36" s="9" t="s">
+      <c r="MG36" s="9" t="s">
         <v>4</v>
       </c>
       <c r="NA36" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="NC36" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="37" spans="29:365" s="9" customFormat="1">
+    <row r="37" spans="29:367" s="9" customFormat="1">
       <c r="AC37" s="14"/>
       <c r="AD37" s="16"/>
       <c r="AE37" s="16"/>
@@ -13050,11 +12664,11 @@
       <c r="FH37" s="1"/>
       <c r="FI37" s="1"/>
       <c r="FJ37" s="1"/>
-      <c r="LW37" s="9" t="s">
+      <c r="LY37" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="29:365" s="9" customFormat="1">
+    <row r="38" spans="29:367" s="9" customFormat="1">
       <c r="AC38" s="14"/>
       <c r="AD38" s="16"/>
       <c r="AE38" s="16"/>
@@ -13171,20 +12785,20 @@
       <c r="FH38" s="1"/>
       <c r="FI38" s="1"/>
       <c r="FJ38" s="1"/>
-      <c r="LW38" s="9" t="s">
+      <c r="LY38" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="ME38" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="MY38" s="9" t="s">
+      <c r="MG38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="NA38" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="NC38" s="9" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="29:365" s="9" customFormat="1">
+    <row r="39" spans="29:367" s="9" customFormat="1">
       <c r="AC39" s="14"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="16"/>
@@ -13302,7 +12916,7 @@
       <c r="FI39" s="1"/>
       <c r="FJ39" s="1"/>
     </row>
-    <row r="40" spans="29:365" s="9" customFormat="1">
+    <row r="40" spans="29:367" s="9" customFormat="1">
       <c r="AC40" s="14"/>
       <c r="AD40" s="16"/>
       <c r="AE40" s="16"/>
@@ -13420,7 +13034,7 @@
       <c r="FI40" s="1"/>
       <c r="FJ40" s="1"/>
     </row>
-    <row r="41" spans="29:365" s="9" customFormat="1">
+    <row r="41" spans="29:367" s="9" customFormat="1">
       <c r="AC41" s="14"/>
       <c r="AD41" s="16"/>
       <c r="AE41" s="16"/>
@@ -13538,7 +13152,7 @@
       <c r="FI41" s="1"/>
       <c r="FJ41" s="1"/>
     </row>
-    <row r="42" spans="29:365" s="9" customFormat="1">
+    <row r="42" spans="29:367" s="9" customFormat="1">
       <c r="AC42" s="14"/>
       <c r="AD42" s="16"/>
       <c r="AE42" s="16"/>
@@ -13656,7 +13270,7 @@
       <c r="FI42" s="1"/>
       <c r="FJ42" s="1"/>
     </row>
-    <row r="43" spans="29:365" s="9" customFormat="1">
+    <row r="43" spans="29:367" s="9" customFormat="1">
       <c r="AC43" s="14"/>
       <c r="AD43" s="16"/>
       <c r="AE43" s="16"/>
@@ -13774,7 +13388,7 @@
       <c r="FI43" s="1"/>
       <c r="FJ43" s="1"/>
     </row>
-    <row r="44" spans="29:365" s="9" customFormat="1">
+    <row r="44" spans="29:367" s="9" customFormat="1">
       <c r="AC44" s="14"/>
       <c r="AD44" s="16"/>
       <c r="AE44" s="16"/>
@@ -13892,7 +13506,7 @@
       <c r="FI44" s="1"/>
       <c r="FJ44" s="1"/>
     </row>
-    <row r="45" spans="29:365" s="9" customFormat="1">
+    <row r="45" spans="29:367" s="9" customFormat="1">
       <c r="AC45" s="14"/>
       <c r="AD45" s="16"/>
       <c r="AE45" s="16"/>
@@ -14010,7 +13624,7 @@
       <c r="FI45" s="1"/>
       <c r="FJ45" s="1"/>
     </row>
-    <row r="46" spans="29:365" s="9" customFormat="1">
+    <row r="46" spans="29:367" s="9" customFormat="1">
       <c r="AC46" s="14"/>
       <c r="AD46" s="16"/>
       <c r="AE46" s="16"/>
@@ -14128,7 +13742,7 @@
       <c r="FI46" s="1"/>
       <c r="FJ46" s="1"/>
     </row>
-    <row r="47" spans="29:365" s="9" customFormat="1">
+    <row r="47" spans="29:367" s="9" customFormat="1">
       <c r="AC47" s="14"/>
       <c r="AD47" s="16"/>
       <c r="AE47" s="16"/>
@@ -14246,7 +13860,7 @@
       <c r="FI47" s="1"/>
       <c r="FJ47" s="1"/>
     </row>
-    <row r="48" spans="29:365" s="9" customFormat="1">
+    <row r="48" spans="29:367" s="9" customFormat="1">
       <c r="AC48" s="14"/>
       <c r="AD48" s="16"/>
       <c r="AE48" s="16"/>
